--- a/teaching/traditional_assets/database/data/denmark/denmark_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_diversified.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="cpse_scd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -590,74 +592,80 @@
           <t>Diversified</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.332</v>
+      </c>
+      <c r="E2">
+        <v>-0.427</v>
+      </c>
       <c r="G2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.209302325581395</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="J2">
-        <v>1.209302325581395</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K2">
-        <v>-4.12</v>
+        <v>0.067</v>
       </c>
       <c r="L2">
-        <v>1.368770764119601</v>
+        <v>0.1970588235294118</v>
       </c>
       <c r="M2">
-        <v>0.199</v>
+        <v>1.25</v>
       </c>
       <c r="N2">
-        <v>0.03726591760299626</v>
+        <v>0.2224199288256228</v>
       </c>
       <c r="O2">
-        <v>-0.04830097087378641</v>
+        <v>18.65671641791045</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.2224199288256228</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>18.65671641791045</v>
       </c>
       <c r="S2">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.26</v>
+        <v>0.749</v>
       </c>
       <c r="V2">
-        <v>0.2359550561797753</v>
+        <v>0.1332740213523132</v>
       </c>
       <c r="W2">
-        <v>-0.1150837988826816</v>
+        <v>0.01233885819521179</v>
       </c>
       <c r="X2">
-        <v>0.05512167988654487</v>
+        <v>0.0438743726714069</v>
       </c>
       <c r="Y2">
-        <v>-0.1702054787692265</v>
+        <v>-0.03153551447619511</v>
       </c>
       <c r="Z2">
-        <v>-0.08620442764269552</v>
+        <v>0.0815347721822542</v>
       </c>
       <c r="AA2">
-        <v>-0.1042472148237248</v>
+        <v>0.01678657074340528</v>
       </c>
       <c r="AB2">
-        <v>0.05512167988654487</v>
+        <v>0.0438743726714069</v>
       </c>
       <c r="AC2">
-        <v>-0.1593688947102697</v>
+        <v>-0.02708780192800162</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-1.26</v>
+        <v>-0.749</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,22 +686,22 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.3088235294117647</v>
+        <v>-0.1537671935947444</v>
       </c>
       <c r="AK2">
-        <v>-0.302158273381295</v>
+        <v>-0.2091594526668528</v>
       </c>
       <c r="AL2">
-        <v>0.04</v>
+        <v>0.003</v>
       </c>
       <c r="AM2">
-        <v>0.04</v>
+        <v>0.003</v>
       </c>
       <c r="AO2">
-        <v>-91</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="AQ2">
-        <v>-91</v>
+        <v>23.33333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -712,110 +720,8834 @@
           <t>Diversified</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.332</v>
+      </c>
+      <c r="E3">
+        <v>-0.427</v>
+      </c>
       <c r="G3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.209302325581395</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="J3">
-        <v>1.209302325581395</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K3">
-        <v>-4.12</v>
+        <v>0.067</v>
       </c>
       <c r="L3">
-        <v>1.368770764119601</v>
+        <v>0.1970588235294118</v>
       </c>
       <c r="M3">
-        <v>0.199</v>
+        <v>1.25</v>
       </c>
       <c r="N3">
-        <v>0.03726591760299626</v>
+        <v>0.2224199288256228</v>
       </c>
       <c r="O3">
-        <v>-0.04830097087378641</v>
+        <v>18.65671641791045</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>1.25</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.2224199288256228</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>18.65671641791045</v>
       </c>
       <c r="S3">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.749</v>
+      </c>
+      <c r="V3">
+        <v>0.1332740213523132</v>
+      </c>
+      <c r="W3">
+        <v>0.01233885819521179</v>
+      </c>
+      <c r="X3">
+        <v>0.0438743726714069</v>
+      </c>
+      <c r="Y3">
+        <v>-0.03153551447619511</v>
+      </c>
+      <c r="Z3">
+        <v>0.0815347721822542</v>
+      </c>
+      <c r="AA3">
+        <v>0.01678657074340528</v>
+      </c>
+      <c r="AB3">
+        <v>0.0438743726714069</v>
+      </c>
+      <c r="AC3">
+        <v>-0.02708780192800162</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-0.749</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.1537671935947444</v>
+      </c>
+      <c r="AK3">
+        <v>-0.2091594526668528</v>
+      </c>
+      <c r="AL3">
+        <v>0.003</v>
+      </c>
+      <c r="AM3">
+        <v>0.003</v>
+      </c>
+      <c r="AO3">
+        <v>23.33333333333334</v>
+      </c>
+      <c r="AQ3">
+        <v>23.33333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Small Cap Danmark A/S (CPSE:SCD)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CPSE:SCD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <v>5.62</v>
+      </c>
+      <c r="H2">
+        <v>5.36926835842882</v>
+      </c>
+      <c r="I2">
+        <v>4.871</v>
+      </c>
+      <c r="J2">
+        <v>4.90126835842882</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.281</v>
+      </c>
+      <c r="M2">
+        <v>0.0438743726714069</v>
+      </c>
+      <c r="N2">
+        <v>0.0436608545720214</v>
+      </c>
+      <c r="O2">
+        <v>0.014976</v>
+      </c>
+      <c r="P2">
+        <v>0.012636</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0438743726714069</v>
+      </c>
+      <c r="T2">
+        <v>0.0452937416547594</v>
+      </c>
+      <c r="U2">
+        <v>0.732507895580655</v>
+      </c>
+      <c r="V2">
+        <v>0.7625792723465979</v>
+      </c>
+      <c r="W2">
+        <v>15.3771802644875</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>5.62</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0192</v>
+      </c>
+      <c r="AD2">
+        <v>0.22</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>1</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0.003</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0.749</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0438743726714069</v>
+      </c>
+      <c r="C2">
+        <v>5.62</v>
+      </c>
+      <c r="D2">
+        <v>4.871</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.749</v>
+      </c>
+      <c r="H2">
+        <v>5.62</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.0154</v>
+      </c>
+      <c r="P2">
+        <v>0.0546</v>
+      </c>
+      <c r="Q2">
+        <v>-0.0154</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.0438743726714069</v>
+      </c>
+      <c r="T2">
+        <v>0.7325078955806548</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.22</v>
+      </c>
+      <c r="W2">
+        <v>0.012636</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.0438316690515298</v>
+      </c>
+      <c r="C3">
+        <v>5.569823726571425</v>
+      </c>
+      <c r="D3">
+        <v>4.877023726571425</v>
+      </c>
+      <c r="E3">
+        <v>0.0562</v>
+      </c>
+      <c r="F3">
+        <v>0.0562</v>
+      </c>
+      <c r="G3">
+        <v>0.749</v>
+      </c>
+      <c r="H3">
+        <v>5.62</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.00091044</v>
+      </c>
+      <c r="N3">
+        <v>0.06908956000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.0151997032</v>
+      </c>
+      <c r="P3">
+        <v>0.05388985680000001</v>
+      </c>
+      <c r="Q3">
+        <v>-0.0161101432</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.04414677681972708</v>
+      </c>
+      <c r="T3">
+        <v>0.738279169909472</v>
+      </c>
       <c r="U3">
-        <v>1.26</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
-        <v>0.2359550561797753</v>
+        <v>0.22</v>
       </c>
       <c r="W3">
-        <v>-0.1150837988826816</v>
-      </c>
-      <c r="X3">
-        <v>0.05512167988654487</v>
+        <v>0.012636</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>-0.1702054787692265</v>
+        <v>76.88590132243752</v>
       </c>
       <c r="Z3">
-        <v>-0.08620442764269552</v>
-      </c>
-      <c r="AA3">
-        <v>-0.1042472148237248</v>
-      </c>
-      <c r="AB3">
-        <v>0.05512167988654487</v>
-      </c>
-      <c r="AC3">
-        <v>-0.1593688947102697</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>-1.26</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.3088235294117647</v>
-      </c>
-      <c r="AK3">
-        <v>-0.302158273381295</v>
-      </c>
-      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.04378896543165271</v>
+      </c>
+      <c r="C4">
+        <v>5.519662370083761</v>
+      </c>
+      <c r="D4">
+        <v>4.883062370083762</v>
+      </c>
+      <c r="E4">
+        <v>0.1124</v>
+      </c>
+      <c r="F4">
+        <v>0.1124</v>
+      </c>
+      <c r="G4">
+        <v>0.749</v>
+      </c>
+      <c r="H4">
+        <v>5.62</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.00182088</v>
+      </c>
+      <c r="N4">
+        <v>0.06817912000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.0149994064</v>
+      </c>
+      <c r="P4">
+        <v>0.05317971360000001</v>
+      </c>
+      <c r="Q4">
+        <v>-0.0168202864</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.04442474023638032</v>
+      </c>
+      <c r="T4">
+        <v>0.7441682253470406</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.22</v>
+      </c>
+      <c r="W4">
+        <v>0.012636</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>38.44295066121876</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04374626181177561</v>
+      </c>
+      <c r="C5">
+        <v>5.469515986015374</v>
+      </c>
+      <c r="D5">
+        <v>4.889115986015374</v>
+      </c>
+      <c r="E5">
+        <v>0.1686</v>
+      </c>
+      <c r="F5">
+        <v>0.1686</v>
+      </c>
+      <c r="G5">
+        <v>0.749</v>
+      </c>
+      <c r="H5">
+        <v>5.62</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.00273132</v>
+      </c>
+      <c r="N5">
+        <v>0.06726868000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.0147991096</v>
+      </c>
+      <c r="P5">
+        <v>0.05246957040000001</v>
+      </c>
+      <c r="Q5">
+        <v>-0.01753042959999999</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.04470843485750063</v>
+      </c>
+      <c r="T5">
+        <v>0.7501787046080644</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.22</v>
+      </c>
+      <c r="W5">
+        <v>0.012636</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>25.62863377414584</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
         <v>0.04</v>
       </c>
-      <c r="AM3">
-        <v>0.04</v>
-      </c>
-      <c r="AO3">
-        <v>-91</v>
-      </c>
-      <c r="AQ3">
-        <v>-91</v>
+      <c r="B6">
+        <v>0.04370355819189852</v>
+      </c>
+      <c r="C6">
+        <v>5.419384630120067</v>
+      </c>
+      <c r="D6">
+        <v>4.895184630120068</v>
+      </c>
+      <c r="E6">
+        <v>0.2248</v>
+      </c>
+      <c r="F6">
+        <v>0.2248</v>
+      </c>
+      <c r="G6">
+        <v>0.749</v>
+      </c>
+      <c r="H6">
+        <v>5.62</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.00364176</v>
+      </c>
+      <c r="N6">
+        <v>0.06635824000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.0145988128</v>
+      </c>
+      <c r="P6">
+        <v>0.05175942720000001</v>
+      </c>
+      <c r="Q6">
+        <v>-0.01824057279999999</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.04499803978322763</v>
+      </c>
+      <c r="T6">
+        <v>0.7563144021870261</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.22</v>
+      </c>
+      <c r="W6">
+        <v>0.012636</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>19.22147533060938</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.04366085457202143</v>
+      </c>
+      <c r="C7">
+        <v>5.369268358428823</v>
+      </c>
+      <c r="D7">
+        <v>4.901268358428823</v>
+      </c>
+      <c r="E7">
+        <v>0.281</v>
+      </c>
+      <c r="F7">
+        <v>0.281</v>
+      </c>
+      <c r="G7">
+        <v>0.749</v>
+      </c>
+      <c r="H7">
+        <v>5.62</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.0045522</v>
+      </c>
+      <c r="N7">
+        <v>0.0654478</v>
+      </c>
+      <c r="O7">
+        <v>0.014398516</v>
+      </c>
+      <c r="P7">
+        <v>0.051049284</v>
+      </c>
+      <c r="Q7">
+        <v>-0.01895071600000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0452937416547594</v>
+      </c>
+      <c r="T7">
+        <v>0.7625792723465975</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.22</v>
+      </c>
+      <c r="W7">
+        <v>0.012636</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>15.3771802644875</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.04369303095214433</v>
+      </c>
+      <c r="C8">
+        <v>5.308482979664021</v>
+      </c>
+      <c r="D8">
+        <v>4.896682979664021</v>
+      </c>
+      <c r="E8">
+        <v>0.3372</v>
+      </c>
+      <c r="F8">
+        <v>0.3372</v>
+      </c>
+      <c r="G8">
+        <v>0.749</v>
+      </c>
+      <c r="H8">
+        <v>5.62</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.00600216</v>
+      </c>
+      <c r="N8">
+        <v>0.06399784</v>
+      </c>
+      <c r="O8">
+        <v>0.0140795248</v>
+      </c>
+      <c r="P8">
+        <v>0.0499183152</v>
+      </c>
+      <c r="Q8">
+        <v>-0.02008168480000001</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04559573505547269</v>
+      </c>
+      <c r="T8">
+        <v>0.7689774376159469</v>
+      </c>
+      <c r="U8">
+        <v>0.0178</v>
+      </c>
+      <c r="V8">
+        <v>0.22</v>
+      </c>
+      <c r="W8">
+        <v>0.013884</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>11.66246817812254</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.04378292733226724</v>
+      </c>
+      <c r="C9">
+        <v>5.239517413961328</v>
+      </c>
+      <c r="D9">
+        <v>4.883917413961328</v>
+      </c>
+      <c r="E9">
+        <v>0.3934</v>
+      </c>
+      <c r="F9">
+        <v>0.3934</v>
+      </c>
+      <c r="G9">
+        <v>0.749</v>
+      </c>
+      <c r="H9">
+        <v>5.62</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.007868</v>
+      </c>
+      <c r="N9">
+        <v>0.06213200000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.01366904</v>
+      </c>
+      <c r="P9">
+        <v>0.04846296000000001</v>
+      </c>
+      <c r="Q9">
+        <v>-0.02153704</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.04590422293792176</v>
+      </c>
+      <c r="T9">
+        <v>0.7755131978373255</v>
+      </c>
+      <c r="U9">
+        <v>0.02</v>
+      </c>
+      <c r="V9">
+        <v>0.22</v>
+      </c>
+      <c r="W9">
+        <v>0.0156</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>8.896797153024913</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.04383850371239014</v>
+      </c>
+      <c r="C10">
+        <v>5.175458635452929</v>
+      </c>
+      <c r="D10">
+        <v>4.87605863545293</v>
+      </c>
+      <c r="E10">
+        <v>0.4496</v>
+      </c>
+      <c r="F10">
+        <v>0.4496</v>
+      </c>
+      <c r="G10">
+        <v>0.749</v>
+      </c>
+      <c r="H10">
+        <v>5.62</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.00948656</v>
+      </c>
+      <c r="N10">
+        <v>0.06051344000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.0133129568</v>
+      </c>
+      <c r="P10">
+        <v>0.0472004832</v>
+      </c>
+      <c r="Q10">
+        <v>-0.0227995168</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.04621941707868493</v>
+      </c>
+      <c r="T10">
+        <v>0.7821910398026469</v>
+      </c>
+      <c r="U10">
+        <v>0.0211</v>
+      </c>
+      <c r="V10">
+        <v>0.22</v>
+      </c>
+      <c r="W10">
+        <v>0.016458</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>7.378860198006444</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.04383402009251304</v>
+      </c>
+      <c r="C11">
+        <v>5.119891703753731</v>
+      </c>
+      <c r="D11">
+        <v>4.876691703753731</v>
+      </c>
+      <c r="E11">
+        <v>0.5058</v>
+      </c>
+      <c r="F11">
+        <v>0.5058</v>
+      </c>
+      <c r="G11">
+        <v>0.749</v>
+      </c>
+      <c r="H11">
+        <v>5.62</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.01067238</v>
+      </c>
+      <c r="N11">
+        <v>0.05932762</v>
+      </c>
+      <c r="O11">
+        <v>0.0130520764</v>
+      </c>
+      <c r="P11">
+        <v>0.0462755436</v>
+      </c>
+      <c r="Q11">
+        <v>-0.0237244564</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.04654153856320115</v>
+      </c>
+      <c r="T11">
+        <v>0.7890156475254482</v>
+      </c>
+      <c r="U11">
+        <v>0.0211</v>
+      </c>
+      <c r="V11">
+        <v>0.22</v>
+      </c>
+      <c r="W11">
+        <v>0.016458</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>6.558986842672394</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.04394653647263595</v>
+      </c>
+      <c r="C12">
+        <v>5.047854400711472</v>
+      </c>
+      <c r="D12">
+        <v>4.860854400711473</v>
+      </c>
+      <c r="E12">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.749</v>
+      </c>
+      <c r="H12">
+        <v>5.62</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.0127012</v>
+      </c>
+      <c r="N12">
+        <v>0.0572988</v>
+      </c>
+      <c r="O12">
+        <v>0.012605736</v>
+      </c>
+      <c r="P12">
+        <v>0.044693064</v>
+      </c>
+      <c r="Q12">
+        <v>-0.025306936</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.04687081830292883</v>
+      </c>
+      <c r="T12">
+        <v>0.7959919131976448</v>
+      </c>
+      <c r="U12">
+        <v>0.0226</v>
+      </c>
+      <c r="V12">
+        <v>0.22</v>
+      </c>
+      <c r="W12">
+        <v>0.017628</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>5.511290271785343</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.04395375285275886</v>
+      </c>
+      <c r="C13">
+        <v>4.990642164800785</v>
+      </c>
+      <c r="D13">
+        <v>4.859842164800785</v>
+      </c>
+      <c r="E13">
+        <v>0.6182</v>
+      </c>
+      <c r="F13">
+        <v>0.6182</v>
+      </c>
+      <c r="G13">
+        <v>0.749</v>
+      </c>
+      <c r="H13">
+        <v>5.62</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.01397132</v>
+      </c>
+      <c r="N13">
+        <v>0.05602868000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.0123263096</v>
+      </c>
+      <c r="P13">
+        <v>0.04370237040000001</v>
+      </c>
+      <c r="Q13">
+        <v>-0.0262976296</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0472074975873695</v>
+      </c>
+      <c r="T13">
+        <v>0.8031249488849472</v>
+      </c>
+      <c r="U13">
+        <v>0.0226</v>
+      </c>
+      <c r="V13">
+        <v>0.22</v>
+      </c>
+      <c r="W13">
+        <v>0.017628</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>5.010263883441223</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.04396096923288177</v>
+      </c>
+      <c r="C14">
+        <v>4.933430350383165</v>
+      </c>
+      <c r="D14">
+        <v>4.858830350383165</v>
+      </c>
+      <c r="E14">
+        <v>0.6744</v>
+      </c>
+      <c r="F14">
+        <v>0.6744</v>
+      </c>
+      <c r="G14">
+        <v>0.749</v>
+      </c>
+      <c r="H14">
+        <v>5.62</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L14">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.01524144</v>
+      </c>
+      <c r="N14">
+        <v>0.05475856000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.0120468832</v>
+      </c>
+      <c r="P14">
+        <v>0.04271167680000001</v>
+      </c>
+      <c r="Q14">
+        <v>-0.0272883232</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.04755182867372929</v>
+      </c>
+      <c r="T14">
+        <v>0.8104200990196881</v>
+      </c>
+      <c r="U14">
+        <v>0.0226</v>
+      </c>
+      <c r="V14">
+        <v>0.22</v>
+      </c>
+      <c r="W14">
+        <v>0.017628</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>4.592741893154454</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05322597416159648</v>
+      </c>
+      <c r="C15">
+        <v>3.852390537417875</v>
+      </c>
+      <c r="D15">
+        <v>3.833990537417876</v>
+      </c>
+      <c r="E15">
+        <v>0.7306</v>
+      </c>
+      <c r="F15">
+        <v>0.7306</v>
+      </c>
+      <c r="G15">
+        <v>0.749</v>
+      </c>
+      <c r="H15">
+        <v>5.62</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.07963540000000001</v>
+      </c>
+      <c r="N15">
+        <v>-0.009635400000000002</v>
+      </c>
+      <c r="O15">
+        <v>-0.002119788</v>
+      </c>
+      <c r="P15">
+        <v>-0.007515612000000001</v>
+      </c>
+      <c r="Q15">
+        <v>-0.07751561200000001</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.04804159503991742</v>
+      </c>
+      <c r="T15">
+        <v>0.8207965050829963</v>
+      </c>
+      <c r="U15">
+        <v>0.109</v>
+      </c>
+      <c r="V15">
+        <v>0.1933813354362507</v>
+      </c>
+      <c r="W15">
+        <v>0.08792143443744868</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.8790060701647759</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05422297416159649</v>
+      </c>
+      <c r="C16">
+        <v>3.711100700043008</v>
+      </c>
+      <c r="D16">
+        <v>3.748900700043008</v>
+      </c>
+      <c r="E16">
+        <v>0.7868000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.7868000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.749</v>
+      </c>
+      <c r="H16">
+        <v>5.62</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.08576120000000001</v>
+      </c>
+      <c r="N16">
+        <v>-0.0157612</v>
+      </c>
+      <c r="O16">
+        <v>-0.003467464000000001</v>
+      </c>
+      <c r="P16">
+        <v>-0.012293736</v>
+      </c>
+      <c r="Q16">
+        <v>-0.08229373600000001</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.04849207870317228</v>
+      </c>
+      <c r="T16">
+        <v>0.8303406504909381</v>
+      </c>
+      <c r="U16">
+        <v>0.109</v>
+      </c>
+      <c r="V16">
+        <v>0.1795683829050899</v>
+      </c>
+      <c r="W16">
+        <v>0.0894270462633452</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.8162199222958634</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.06009340191897435</v>
+      </c>
+      <c r="C17">
+        <v>3.221622953372439</v>
+      </c>
+      <c r="D17">
+        <v>3.315622953372439</v>
+      </c>
+      <c r="E17">
+        <v>0.843</v>
+      </c>
+      <c r="F17">
+        <v>0.843</v>
+      </c>
+      <c r="G17">
+        <v>0.749</v>
+      </c>
+      <c r="H17">
+        <v>5.62</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L17">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.1181886</v>
+      </c>
+      <c r="N17">
+        <v>-0.04818859999999998</v>
+      </c>
+      <c r="O17">
+        <v>-0.010601492</v>
+      </c>
+      <c r="P17">
+        <v>-0.03758710799999999</v>
+      </c>
+      <c r="Q17">
+        <v>-0.107587108</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0491807240495365</v>
+      </c>
+      <c r="T17">
+        <v>0.8449305942698411</v>
+      </c>
+      <c r="U17">
+        <v>0.1402</v>
+      </c>
+      <c r="V17">
+        <v>0.1303002150799654</v>
+      </c>
+      <c r="W17">
+        <v>0.1219319098457888</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.5922737049089337</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06140240191897435</v>
+      </c>
+      <c r="C18">
+        <v>3.082122562486161</v>
+      </c>
+      <c r="D18">
+        <v>3.232322562486161</v>
+      </c>
+      <c r="E18">
+        <v>0.8992</v>
+      </c>
+      <c r="F18">
+        <v>0.8992</v>
+      </c>
+      <c r="G18">
+        <v>0.749</v>
+      </c>
+      <c r="H18">
+        <v>5.62</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L18">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.12606784</v>
+      </c>
+      <c r="N18">
+        <v>-0.05606783999999998</v>
+      </c>
+      <c r="O18">
+        <v>-0.0123349248</v>
+      </c>
+      <c r="P18">
+        <v>-0.04373291519999999</v>
+      </c>
+      <c r="Q18">
+        <v>-0.1137329152</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.04965549457393574</v>
+      </c>
+      <c r="T18">
+        <v>0.8549892918206725</v>
+      </c>
+      <c r="U18">
+        <v>0.1402</v>
+      </c>
+      <c r="V18">
+        <v>0.1221564516374676</v>
+      </c>
+      <c r="W18">
+        <v>0.123073665480427</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.5552565983521254</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06271140191897435</v>
+      </c>
+      <c r="C19">
+        <v>2.946705202853604</v>
+      </c>
+      <c r="D19">
+        <v>3.153105202853604</v>
+      </c>
+      <c r="E19">
+        <v>0.9554000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.9554000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.749</v>
+      </c>
+      <c r="H19">
+        <v>5.62</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0.13394708</v>
+      </c>
+      <c r="N19">
+        <v>-0.06394708000000002</v>
+      </c>
+      <c r="O19">
+        <v>-0.0140683576</v>
+      </c>
+      <c r="P19">
+        <v>-0.04987872240000001</v>
+      </c>
+      <c r="Q19">
+        <v>-0.1198787224</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05014170535193498</v>
+      </c>
+      <c r="T19">
+        <v>0.865290367625741</v>
+      </c>
+      <c r="U19">
+        <v>0.1402</v>
+      </c>
+      <c r="V19">
+        <v>0.1149707780117342</v>
+      </c>
+      <c r="W19">
+        <v>0.1240810969227549</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.5225944455078826</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07201042064229818</v>
+      </c>
+      <c r="C20">
+        <v>2.422946796808269</v>
+      </c>
+      <c r="D20">
+        <v>2.685546796808269</v>
+      </c>
+      <c r="E20">
+        <v>1.0116</v>
+      </c>
+      <c r="F20">
+        <v>1.0116</v>
+      </c>
+      <c r="G20">
+        <v>0.749</v>
+      </c>
+      <c r="H20">
+        <v>5.62</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.18583092</v>
+      </c>
+      <c r="N20">
+        <v>-0.11583092</v>
+      </c>
+      <c r="O20">
+        <v>-0.0254828024</v>
+      </c>
+      <c r="P20">
+        <v>-0.0903481176</v>
+      </c>
+      <c r="Q20">
+        <v>-0.1603481176</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.05083491971393884</v>
+      </c>
+      <c r="T20">
+        <v>0.8799771125834502</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.0828710313655015</v>
+      </c>
+      <c r="W20">
+        <v>0.1684765915381574</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.376686506206825</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07375442064229819</v>
+      </c>
+      <c r="C21">
+        <v>2.294081592979564</v>
+      </c>
+      <c r="D21">
+        <v>2.612881592979564</v>
+      </c>
+      <c r="E21">
+        <v>1.0678</v>
+      </c>
+      <c r="F21">
+        <v>1.0678</v>
+      </c>
+      <c r="G21">
+        <v>0.749</v>
+      </c>
+      <c r="H21">
+        <v>5.62</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.19615486</v>
+      </c>
+      <c r="N21">
+        <v>-0.12615486</v>
+      </c>
+      <c r="O21">
+        <v>-0.0277540692</v>
+      </c>
+      <c r="P21">
+        <v>-0.0984007908</v>
+      </c>
+      <c r="Q21">
+        <v>-0.1684007908</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05134769650053068</v>
+      </c>
+      <c r="T21">
+        <v>0.8908410275536163</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.07850939813573826</v>
+      </c>
+      <c r="W21">
+        <v>0.1692778235624649</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.3568609006169922</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.0754984206422982</v>
+      </c>
+      <c r="C22">
+        <v>2.169045124466527</v>
+      </c>
+      <c r="D22">
+        <v>2.544045124466527</v>
+      </c>
+      <c r="E22">
+        <v>1.124</v>
+      </c>
+      <c r="F22">
+        <v>1.124</v>
+      </c>
+      <c r="G22">
+        <v>0.749</v>
+      </c>
+      <c r="H22">
+        <v>5.62</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L22">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.2064788</v>
+      </c>
+      <c r="N22">
+        <v>-0.1364788</v>
+      </c>
+      <c r="O22">
+        <v>-0.030025336</v>
+      </c>
+      <c r="P22">
+        <v>-0.106453464</v>
+      </c>
+      <c r="Q22">
+        <v>-0.176453464</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.05187329270678732</v>
+      </c>
+      <c r="T22">
+        <v>0.9019765403980365</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.07458392822895135</v>
+      </c>
+      <c r="W22">
+        <v>0.1699989323843416</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.3390178555861425</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07724242064229818</v>
+      </c>
+      <c r="C23">
+        <v>2.047542554214749</v>
+      </c>
+      <c r="D23">
+        <v>2.478742554214748</v>
+      </c>
+      <c r="E23">
+        <v>1.1802</v>
+      </c>
+      <c r="F23">
+        <v>1.1802</v>
+      </c>
+      <c r="G23">
+        <v>0.749</v>
+      </c>
+      <c r="H23">
+        <v>5.62</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L23">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.21680274</v>
+      </c>
+      <c r="N23">
+        <v>-0.14680274</v>
+      </c>
+      <c r="O23">
+        <v>-0.0322966028</v>
+      </c>
+      <c r="P23">
+        <v>-0.1145061372</v>
+      </c>
+      <c r="Q23">
+        <v>-0.1845061372</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.05241219514611374</v>
+      </c>
+      <c r="T23">
+        <v>0.913393964960037</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.07103231259900129</v>
+      </c>
+      <c r="W23">
+        <v>0.1706513641755635</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.3228741481772787</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.07898642064229819</v>
+      </c>
+      <c r="C24">
+        <v>1.929308560006031</v>
+      </c>
+      <c r="D24">
+        <v>2.416708560006031</v>
+      </c>
+      <c r="E24">
+        <v>1.2364</v>
+      </c>
+      <c r="F24">
+        <v>1.2364</v>
+      </c>
+      <c r="G24">
+        <v>0.749</v>
+      </c>
+      <c r="H24">
+        <v>5.62</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L24">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.22712668</v>
+      </c>
+      <c r="N24">
+        <v>-0.15712668</v>
+      </c>
+      <c r="O24">
+        <v>-0.0345678696</v>
+      </c>
+      <c r="P24">
+        <v>-0.1225588104</v>
+      </c>
+      <c r="Q24">
+        <v>-0.1925588104</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.05296491559670495</v>
+      </c>
+      <c r="T24">
+        <v>0.9251041439979862</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.06780357111722851</v>
+      </c>
+      <c r="W24">
+        <v>0.1712444839857651</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.3081980505328569</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.08073042064229818</v>
+      </c>
+      <c r="C25">
+        <v>1.81410373138047</v>
+      </c>
+      <c r="D25">
+        <v>2.35770373138047</v>
+      </c>
+      <c r="E25">
+        <v>1.2926</v>
+      </c>
+      <c r="F25">
+        <v>1.2926</v>
+      </c>
+      <c r="G25">
+        <v>0.749</v>
+      </c>
+      <c r="H25">
+        <v>5.62</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.23745062</v>
+      </c>
+      <c r="N25">
+        <v>-0.16745062</v>
+      </c>
+      <c r="O25">
+        <v>-0.0368391364</v>
+      </c>
+      <c r="P25">
+        <v>-0.1306114836</v>
+      </c>
+      <c r="Q25">
+        <v>-0.2006114836</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.05353199242263618</v>
+      </c>
+      <c r="T25">
+        <v>0.9371184835304275</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.06485558976430553</v>
+      </c>
+      <c r="W25">
+        <v>0.1717860281602971</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.2947981352922978</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08247442064229818</v>
+      </c>
+      <c r="C26">
+        <v>1.701711481801514</v>
+      </c>
+      <c r="D26">
+        <v>2.301511481801514</v>
+      </c>
+      <c r="E26">
+        <v>1.3488</v>
+      </c>
+      <c r="F26">
+        <v>1.3488</v>
+      </c>
+      <c r="G26">
+        <v>0.749</v>
+      </c>
+      <c r="H26">
+        <v>5.62</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.24777456</v>
+      </c>
+      <c r="N26">
+        <v>-0.17777456</v>
+      </c>
+      <c r="O26">
+        <v>-0.0391104032</v>
+      </c>
+      <c r="P26">
+        <v>-0.1386641568</v>
+      </c>
+      <c r="Q26">
+        <v>-0.2086641568</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.05411399232293403</v>
+      </c>
+      <c r="T26">
+        <v>0.94944898989267</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.06215327352412613</v>
+      </c>
+      <c r="W26">
+        <v>0.172282443653618</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.2825148796551188</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.08421842064229819</v>
+      </c>
+      <c r="C27">
+        <v>1.591935392104881</v>
+      </c>
+      <c r="D27">
+        <v>2.247935392104881</v>
+      </c>
+      <c r="E27">
+        <v>1.405</v>
+      </c>
+      <c r="F27">
+        <v>1.405</v>
+      </c>
+      <c r="G27">
+        <v>0.749</v>
+      </c>
+      <c r="H27">
+        <v>5.62</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L27">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M27">
+        <v>0.2580985</v>
+      </c>
+      <c r="N27">
+        <v>-0.1880985</v>
+      </c>
+      <c r="O27">
+        <v>-0.04138167</v>
+      </c>
+      <c r="P27">
+        <v>-0.14671683</v>
+      </c>
+      <c r="Q27">
+        <v>-0.21671683</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.05471151222057315</v>
+      </c>
+      <c r="T27">
+        <v>0.9621083097579056</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.05966714258316108</v>
+      </c>
+      <c r="W27">
+        <v>0.1727391459074733</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.271214284468914</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.0859624206422982</v>
+      </c>
+      <c r="C28">
+        <v>1.484596916552129</v>
+      </c>
+      <c r="D28">
+        <v>2.196796916552129</v>
+      </c>
+      <c r="E28">
+        <v>1.4612</v>
+      </c>
+      <c r="F28">
+        <v>1.4612</v>
+      </c>
+      <c r="G28">
+        <v>0.749</v>
+      </c>
+      <c r="H28">
+        <v>5.62</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.26842244</v>
+      </c>
+      <c r="N28">
+        <v>-0.19842244</v>
+      </c>
+      <c r="O28">
+        <v>-0.04365293680000001</v>
+      </c>
+      <c r="P28">
+        <v>-0.1547695032</v>
+      </c>
+      <c r="Q28">
+        <v>-0.2247695032</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.05532518130463494</v>
+      </c>
+      <c r="T28">
+        <v>0.9751097734032828</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.05737225248380873</v>
+      </c>
+      <c r="W28">
+        <v>0.1731607172187243</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.2607829658354942</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.08770642064229819</v>
+      </c>
+      <c r="C29">
+        <v>1.37953339503078</v>
+      </c>
+      <c r="D29">
+        <v>2.14793339503078</v>
+      </c>
+      <c r="E29">
+        <v>1.5174</v>
+      </c>
+      <c r="F29">
+        <v>1.5174</v>
+      </c>
+      <c r="G29">
+        <v>0.749</v>
+      </c>
+      <c r="H29">
+        <v>5.62</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L29">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.27874638</v>
+      </c>
+      <c r="N29">
+        <v>-0.20874638</v>
+      </c>
+      <c r="O29">
+        <v>-0.0459242036</v>
+      </c>
+      <c r="P29">
+        <v>-0.1628221764</v>
+      </c>
+      <c r="Q29">
+        <v>-0.2328221764</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.05595566324031488</v>
+      </c>
+      <c r="T29">
+        <v>0.9884674415320949</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.05524735424366766</v>
+      </c>
+      <c r="W29">
+        <v>0.1735510610254382</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.2511243374712167</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.08945042064229819</v>
+      </c>
+      <c r="C30">
+        <v>1.276596324770705</v>
+      </c>
+      <c r="D30">
+        <v>2.101196324770705</v>
+      </c>
+      <c r="E30">
+        <v>1.5736</v>
+      </c>
+      <c r="F30">
+        <v>1.5736</v>
+      </c>
+      <c r="G30">
+        <v>0.749</v>
+      </c>
+      <c r="H30">
+        <v>5.62</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.28907032</v>
+      </c>
+      <c r="N30">
+        <v>-0.21907032</v>
+      </c>
+      <c r="O30">
+        <v>-0.04819547040000001</v>
+      </c>
+      <c r="P30">
+        <v>-0.1708748496</v>
+      </c>
+      <c r="Q30">
+        <v>-0.2408748496000001</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.05660365856309703</v>
+      </c>
+      <c r="T30">
+        <v>1.002196155997818</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.05327423444925096</v>
+      </c>
+      <c r="W30">
+        <v>0.1739135231316726</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.2421556111329589</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.09119442064229817</v>
+      </c>
+      <c r="C31">
+        <v>1.175649852890698</v>
+      </c>
+      <c r="D31">
+        <v>2.056449852890698</v>
+      </c>
+      <c r="E31">
+        <v>1.6298</v>
+      </c>
+      <c r="F31">
+        <v>1.6298</v>
+      </c>
+      <c r="G31">
+        <v>0.749</v>
+      </c>
+      <c r="H31">
+        <v>5.62</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L31">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.29939426</v>
+      </c>
+      <c r="N31">
+        <v>-0.22939426</v>
+      </c>
+      <c r="O31">
+        <v>-0.05046673719999999</v>
+      </c>
+      <c r="P31">
+        <v>-0.1789275228</v>
+      </c>
+      <c r="Q31">
+        <v>-0.2489275228</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.05726990727525332</v>
+      </c>
+      <c r="T31">
+        <v>1.016311594814689</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.05143719188203542</v>
+      </c>
+      <c r="W31">
+        <v>0.1742509878512701</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.2338054176456156</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.09293842064229818</v>
+      </c>
+      <c r="C32">
+        <v>1.076569457542491</v>
+      </c>
+      <c r="D32">
+        <v>2.013569457542491</v>
+      </c>
+      <c r="E32">
+        <v>1.686</v>
+      </c>
+      <c r="F32">
+        <v>1.686</v>
+      </c>
+      <c r="G32">
+        <v>0.749</v>
+      </c>
+      <c r="H32">
+        <v>5.62</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L32">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.3097182</v>
+      </c>
+      <c r="N32">
+        <v>-0.2397182</v>
+      </c>
+      <c r="O32">
+        <v>-0.052738004</v>
+      </c>
+      <c r="P32">
+        <v>-0.186980196</v>
+      </c>
+      <c r="Q32">
+        <v>-0.256980196</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.05795519166489981</v>
+      </c>
+      <c r="T32">
+        <v>1.03083033188347</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.04972261881930091</v>
+      </c>
+      <c r="W32">
+        <v>0.1745659549228944</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.2260119037240951</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.09468242064229818</v>
+      </c>
+      <c r="C33">
+        <v>0.9792407906865122</v>
+      </c>
+      <c r="D33">
+        <v>1.972440790686512</v>
+      </c>
+      <c r="E33">
+        <v>1.7422</v>
+      </c>
+      <c r="F33">
+        <v>1.7422</v>
+      </c>
+      <c r="G33">
+        <v>0.749</v>
+      </c>
+      <c r="H33">
+        <v>5.62</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L33">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.32004214</v>
+      </c>
+      <c r="N33">
+        <v>-0.25004214</v>
+      </c>
+      <c r="O33">
+        <v>-0.0550092708</v>
+      </c>
+      <c r="P33">
+        <v>-0.1950328692</v>
+      </c>
+      <c r="Q33">
+        <v>-0.2650328692</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.05866033937018821</v>
+      </c>
+      <c r="T33">
+        <v>1.045769901910767</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.04811866337351701</v>
+      </c>
+      <c r="W33">
+        <v>0.1748606015382849</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.2187211971523501</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.09642642064229817</v>
+      </c>
+      <c r="C34">
+        <v>0.8835586598518241</v>
+      </c>
+      <c r="D34">
+        <v>1.932958659851824</v>
+      </c>
+      <c r="E34">
+        <v>1.7984</v>
+      </c>
+      <c r="F34">
+        <v>1.7984</v>
+      </c>
+      <c r="G34">
+        <v>0.749</v>
+      </c>
+      <c r="H34">
+        <v>5.62</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L34">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.33036608</v>
+      </c>
+      <c r="N34">
+        <v>-0.26036608</v>
+      </c>
+      <c r="O34">
+        <v>-0.0572805376</v>
+      </c>
+      <c r="P34">
+        <v>-0.2030855424</v>
+      </c>
+      <c r="Q34">
+        <v>-0.2730855424</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.05938622671386744</v>
+      </c>
+      <c r="T34">
+        <v>1.061148871056514</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.0466149551430946</v>
+      </c>
+      <c r="W34">
+        <v>0.1751368327402135</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.2118861597413391</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.0981704206422982</v>
+      </c>
+      <c r="C35">
+        <v>0.7894261297881919</v>
+      </c>
+      <c r="D35">
+        <v>1.895026129788192</v>
+      </c>
+      <c r="E35">
+        <v>1.8546</v>
+      </c>
+      <c r="F35">
+        <v>1.8546</v>
+      </c>
+      <c r="G35">
+        <v>0.749</v>
+      </c>
+      <c r="H35">
+        <v>5.62</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M35">
+        <v>0.34069002</v>
+      </c>
+      <c r="N35">
+        <v>-0.27069002</v>
+      </c>
+      <c r="O35">
+        <v>-0.0595518044</v>
+      </c>
+      <c r="P35">
+        <v>-0.2111382156</v>
+      </c>
+      <c r="Q35">
+        <v>-0.2811382156</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06013378233646248</v>
+      </c>
+      <c r="T35">
+        <v>1.076986913908103</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.04520238074481901</v>
+      </c>
+      <c r="W35">
+        <v>0.1753963226571768</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.2054653670219045</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.0999144206422982</v>
+      </c>
+      <c r="C36">
+        <v>0.6967537278578539</v>
+      </c>
+      <c r="D36">
+        <v>1.858553727857854</v>
+      </c>
+      <c r="E36">
+        <v>1.9108</v>
+      </c>
+      <c r="F36">
+        <v>1.9108</v>
+      </c>
+      <c r="G36">
+        <v>0.749</v>
+      </c>
+      <c r="H36">
+        <v>5.62</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M36">
+        <v>0.3510139600000001</v>
+      </c>
+      <c r="N36">
+        <v>-0.2810139600000001</v>
+      </c>
+      <c r="O36">
+        <v>-0.06182307120000002</v>
+      </c>
+      <c r="P36">
+        <v>-0.2191908888</v>
+      </c>
+      <c r="Q36">
+        <v>-0.2891908888</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.06090399115974222</v>
+      </c>
+      <c r="T36">
+        <v>1.093304897452166</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.04387289895820667</v>
+      </c>
+      <c r="W36">
+        <v>0.1756405484613774</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.1994222679918485</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1016584206422982</v>
+      </c>
+      <c r="C37">
+        <v>0.6054587394546023</v>
+      </c>
+      <c r="D37">
+        <v>1.823458739454602</v>
+      </c>
+      <c r="E37">
+        <v>1.967</v>
+      </c>
+      <c r="F37">
+        <v>1.967</v>
+      </c>
+      <c r="G37">
+        <v>0.749</v>
+      </c>
+      <c r="H37">
+        <v>5.62</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L37">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M37">
+        <v>0.3613379</v>
+      </c>
+      <c r="N37">
+        <v>-0.2913379</v>
+      </c>
+      <c r="O37">
+        <v>-0.06409433800000001</v>
+      </c>
+      <c r="P37">
+        <v>-0.227243562</v>
+      </c>
+      <c r="Q37">
+        <v>-0.297243562</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.06169789871604593</v>
+      </c>
+      <c r="T37">
+        <v>1.110124972797583</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.04261938755940077</v>
+      </c>
+      <c r="W37">
+        <v>0.1758708185053381</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.1937244889063672</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1034024206422982</v>
+      </c>
+      <c r="C38">
+        <v>0.5154645817708476</v>
+      </c>
+      <c r="D38">
+        <v>1.789664581770848</v>
+      </c>
+      <c r="E38">
+        <v>2.0232</v>
+      </c>
+      <c r="F38">
+        <v>2.0232</v>
+      </c>
+      <c r="G38">
+        <v>0.749</v>
+      </c>
+      <c r="H38">
+        <v>5.62</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M38">
+        <v>0.37166184</v>
+      </c>
+      <c r="N38">
+        <v>-0.30166184</v>
+      </c>
+      <c r="O38">
+        <v>-0.06636560480000001</v>
+      </c>
+      <c r="P38">
+        <v>-0.2352962352</v>
+      </c>
+      <c r="Q38">
+        <v>-0.3052962352</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.06251661588348416</v>
+      </c>
+      <c r="T38">
+        <v>1.127470675497546</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.04143551568275075</v>
+      </c>
+      <c r="W38">
+        <v>0.1760882957690787</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.1883432531034125</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1051464206422982</v>
+      </c>
+      <c r="C39">
+        <v>0.4267002459334495</v>
+      </c>
+      <c r="D39">
+        <v>1.757100245933449</v>
+      </c>
+      <c r="E39">
+        <v>2.0794</v>
+      </c>
+      <c r="F39">
+        <v>2.0794</v>
+      </c>
+      <c r="G39">
+        <v>0.749</v>
+      </c>
+      <c r="H39">
+        <v>5.62</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L39">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.3819857800000001</v>
+      </c>
+      <c r="N39">
+        <v>-0.31198578</v>
+      </c>
+      <c r="O39">
+        <v>-0.06863687160000001</v>
+      </c>
+      <c r="P39">
+        <v>-0.2433489084</v>
+      </c>
+      <c r="Q39">
+        <v>-0.3133489084000001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.06336132407211088</v>
+      </c>
+      <c r="T39">
+        <v>1.145367035426078</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.04031563688051424</v>
+      </c>
+      <c r="W39">
+        <v>0.1762940175050496</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.1832528949114284</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1068904206422982</v>
+      </c>
+      <c r="C40">
+        <v>0.3390997989557696</v>
+      </c>
+      <c r="D40">
+        <v>1.72569979895577</v>
+      </c>
+      <c r="E40">
+        <v>2.1356</v>
+      </c>
+      <c r="F40">
+        <v>2.1356</v>
+      </c>
+      <c r="G40">
+        <v>0.749</v>
+      </c>
+      <c r="H40">
+        <v>5.62</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L40">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M40">
+        <v>0.39230972</v>
+      </c>
+      <c r="N40">
+        <v>-0.32230972</v>
+      </c>
+      <c r="O40">
+        <v>-0.0709081384</v>
+      </c>
+      <c r="P40">
+        <v>-0.2514015816</v>
+      </c>
+      <c r="Q40">
+        <v>-0.3214015816</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.06423328091198365</v>
+      </c>
+      <c r="T40">
+        <v>1.163840697287789</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.03925469906786913</v>
+      </c>
+      <c r="W40">
+        <v>0.1764889117812324</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.178430450308496</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1086344206422982</v>
+      </c>
+      <c r="C41">
+        <v>0.252601938154664</v>
+      </c>
+      <c r="D41">
+        <v>1.695401938154664</v>
+      </c>
+      <c r="E41">
+        <v>2.1918</v>
+      </c>
+      <c r="F41">
+        <v>2.1918</v>
+      </c>
+      <c r="G41">
+        <v>0.749</v>
+      </c>
+      <c r="H41">
+        <v>5.62</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M41">
+        <v>0.4026336600000001</v>
+      </c>
+      <c r="N41">
+        <v>-0.3326336600000001</v>
+      </c>
+      <c r="O41">
+        <v>-0.07317940520000001</v>
+      </c>
+      <c r="P41">
+        <v>-0.2594542548000001</v>
+      </c>
+      <c r="Q41">
+        <v>-0.3294542548000001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.06513382650070468</v>
+      </c>
+      <c r="T41">
+        <v>1.182920052981031</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.03824816832253915</v>
+      </c>
+      <c r="W41">
+        <v>0.1766738114791495</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.1738553105569961</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1103784206422982</v>
+      </c>
+      <c r="C42">
+        <v>0.1671495916958148</v>
+      </c>
+      <c r="D42">
+        <v>1.666149591695815</v>
+      </c>
+      <c r="E42">
+        <v>2.248</v>
+      </c>
+      <c r="F42">
+        <v>2.248</v>
+      </c>
+      <c r="G42">
+        <v>0.749</v>
+      </c>
+      <c r="H42">
+        <v>5.62</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.4129576</v>
+      </c>
+      <c r="N42">
+        <v>-0.3429576</v>
+      </c>
+      <c r="O42">
+        <v>-0.07545067200000001</v>
+      </c>
+      <c r="P42">
+        <v>-0.267506928</v>
+      </c>
+      <c r="Q42">
+        <v>-0.337506928</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.06606439027571644</v>
+      </c>
+      <c r="T42">
+        <v>1.202635387197382</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.03729196411447568</v>
+      </c>
+      <c r="W42">
+        <v>0.1768494661921708</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.1695089277930713</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1121224206422982</v>
+      </c>
+      <c r="C43">
+        <v>0.08268955979065185</v>
+      </c>
+      <c r="D43">
+        <v>1.637889559790652</v>
+      </c>
+      <c r="E43">
+        <v>2.3042</v>
+      </c>
+      <c r="F43">
+        <v>2.3042</v>
+      </c>
+      <c r="G43">
+        <v>0.749</v>
+      </c>
+      <c r="H43">
+        <v>5.62</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M43">
+        <v>0.4232815400000001</v>
+      </c>
+      <c r="N43">
+        <v>-0.3532815400000001</v>
+      </c>
+      <c r="O43">
+        <v>-0.07772193880000001</v>
+      </c>
+      <c r="P43">
+        <v>-0.2755596012000001</v>
+      </c>
+      <c r="Q43">
+        <v>-0.3455596012000001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.06702649858547433</v>
+      </c>
+      <c r="T43">
+        <v>1.223019037827846</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.03638240401412261</v>
+      </c>
+      <c r="W43">
+        <v>0.1770165523826057</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.1653745637005573</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1138664206422982</v>
+      </c>
+      <c r="C44">
+        <v>-0.0008278082011852206</v>
+      </c>
+      <c r="D44">
+        <v>1.610572191798815</v>
+      </c>
+      <c r="E44">
+        <v>2.3604</v>
+      </c>
+      <c r="F44">
+        <v>2.3604</v>
+      </c>
+      <c r="G44">
+        <v>0.749</v>
+      </c>
+      <c r="H44">
+        <v>5.62</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L44">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M44">
+        <v>0.43360548</v>
+      </c>
+      <c r="N44">
+        <v>-0.36360548</v>
+      </c>
+      <c r="O44">
+        <v>-0.07999320559999999</v>
+      </c>
+      <c r="P44">
+        <v>-0.2836122744</v>
+      </c>
+      <c r="Q44">
+        <v>-0.3536122744</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.06802178304384457</v>
+      </c>
+      <c r="T44">
+        <v>1.244105572962809</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.03551615629950065</v>
+      </c>
+      <c r="W44">
+        <v>0.1771756820877817</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.1614370740886393</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1156104206422982</v>
+      </c>
+      <c r="C45">
+        <v>-0.08344890488697487</v>
+      </c>
+      <c r="D45">
+        <v>1.584151095113025</v>
+      </c>
+      <c r="E45">
+        <v>2.4166</v>
+      </c>
+      <c r="F45">
+        <v>2.4166</v>
+      </c>
+      <c r="G45">
+        <v>0.749</v>
+      </c>
+      <c r="H45">
+        <v>5.62</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L45">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M45">
+        <v>0.44392942</v>
+      </c>
+      <c r="N45">
+        <v>-0.37392942</v>
+      </c>
+      <c r="O45">
+        <v>-0.0822644724</v>
+      </c>
+      <c r="P45">
+        <v>-0.2916649475999999</v>
+      </c>
+      <c r="Q45">
+        <v>-0.3616649476</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.06905198976391203</v>
+      </c>
+      <c r="T45">
+        <v>1.26593198652356</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.03469019917625645</v>
+      </c>
+      <c r="W45">
+        <v>0.1773274104113217</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.1576827235284384</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1173544206422982</v>
+      </c>
+      <c r="C46">
+        <v>-0.1652171277644356</v>
+      </c>
+      <c r="D46">
+        <v>1.558582872235564</v>
+      </c>
+      <c r="E46">
+        <v>2.4728</v>
+      </c>
+      <c r="F46">
+        <v>2.4728</v>
+      </c>
+      <c r="G46">
+        <v>0.749</v>
+      </c>
+      <c r="H46">
+        <v>5.62</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L46">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M46">
+        <v>0.45425336</v>
+      </c>
+      <c r="N46">
+        <v>-0.38425336</v>
+      </c>
+      <c r="O46">
+        <v>-0.0845357392</v>
+      </c>
+      <c r="P46">
+        <v>-0.2997176208</v>
+      </c>
+      <c r="Q46">
+        <v>-0.3697176208</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.07011898958112475</v>
+      </c>
+      <c r="T46">
+        <v>1.288537914854338</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.03390178555861426</v>
+      </c>
+      <c r="W46">
+        <v>0.1774722419928826</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.1540990252664284</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1190984206422982</v>
+      </c>
+      <c r="C47">
+        <v>-0.2461731170881261</v>
+      </c>
+      <c r="D47">
+        <v>1.533826882911874</v>
+      </c>
+      <c r="E47">
+        <v>2.529</v>
+      </c>
+      <c r="F47">
+        <v>2.529</v>
+      </c>
+      <c r="G47">
+        <v>0.749</v>
+      </c>
+      <c r="H47">
+        <v>5.62</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L47">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M47">
+        <v>0.4645773</v>
+      </c>
+      <c r="N47">
+        <v>-0.3945773</v>
+      </c>
+      <c r="O47">
+        <v>-0.08680700599999999</v>
+      </c>
+      <c r="P47">
+        <v>-0.307770294</v>
+      </c>
+      <c r="Q47">
+        <v>-0.377770294</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.07122478939169065</v>
+      </c>
+      <c r="T47">
+        <v>1.311965876942599</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.0331484125462006</v>
+      </c>
+      <c r="W47">
+        <v>0.1776106366152629</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.15067460248273</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1208424206422982</v>
+      </c>
+      <c r="C48">
+        <v>-0.3263549714211664</v>
+      </c>
+      <c r="D48">
+        <v>1.509845028578834</v>
+      </c>
+      <c r="E48">
+        <v>2.5852</v>
+      </c>
+      <c r="F48">
+        <v>2.5852</v>
+      </c>
+      <c r="G48">
+        <v>0.749</v>
+      </c>
+      <c r="H48">
+        <v>5.62</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L48">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.47490124</v>
+      </c>
+      <c r="N48">
+        <v>-0.40490124</v>
+      </c>
+      <c r="O48">
+        <v>-0.0890782728</v>
+      </c>
+      <c r="P48">
+        <v>-0.3158229672</v>
+      </c>
+      <c r="Q48">
+        <v>-0.3858229672</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.07237154475079605</v>
+      </c>
+      <c r="T48">
+        <v>1.336261541330425</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.03242779488215276</v>
+      </c>
+      <c r="W48">
+        <v>0.1777430140801485</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.147399067646149</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1225864206422982</v>
+      </c>
+      <c r="C49">
+        <v>-0.4057984432769484</v>
+      </c>
+      <c r="D49">
+        <v>1.486601556723052</v>
+      </c>
+      <c r="E49">
+        <v>2.6414</v>
+      </c>
+      <c r="F49">
+        <v>2.6414</v>
+      </c>
+      <c r="G49">
+        <v>0.749</v>
+      </c>
+      <c r="H49">
+        <v>5.62</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L49">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M49">
+        <v>0.4852251800000001</v>
+      </c>
+      <c r="N49">
+        <v>-0.4152251800000001</v>
+      </c>
+      <c r="O49">
+        <v>-0.09134953960000002</v>
+      </c>
+      <c r="P49">
+        <v>-0.3238756404000001</v>
+      </c>
+      <c r="Q49">
+        <v>-0.3938756404000001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.07356157389703746</v>
+      </c>
+      <c r="T49">
+        <v>1.361474023242319</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.03173784179955377</v>
+      </c>
+      <c r="W49">
+        <v>0.177869758461422</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.144262917270699</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1243304206422982</v>
+      </c>
+      <c r="C50">
+        <v>-0.4845371169638599</v>
+      </c>
+      <c r="D50">
+        <v>1.46406288303614</v>
+      </c>
+      <c r="E50">
+        <v>2.6976</v>
+      </c>
+      <c r="F50">
+        <v>2.6976</v>
+      </c>
+      <c r="G50">
+        <v>0.749</v>
+      </c>
+      <c r="H50">
+        <v>5.62</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L50">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M50">
+        <v>0.49554912</v>
+      </c>
+      <c r="N50">
+        <v>-0.42554912</v>
+      </c>
+      <c r="O50">
+        <v>-0.09362080640000001</v>
+      </c>
+      <c r="P50">
+        <v>-0.3319283136</v>
+      </c>
+      <c r="Q50">
+        <v>-0.4019283136</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.07479737339505742</v>
+      </c>
+      <c r="T50">
+        <v>1.387656215996979</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.03107663676206307</v>
+      </c>
+      <c r="W50">
+        <v>0.177991221826809</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.1412574398275593</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1260744206422982</v>
+      </c>
+      <c r="C51">
+        <v>-0.5626025704935875</v>
+      </c>
+      <c r="D51">
+        <v>1.442197429506413</v>
+      </c>
+      <c r="E51">
+        <v>2.7538</v>
+      </c>
+      <c r="F51">
+        <v>2.7538</v>
+      </c>
+      <c r="G51">
+        <v>0.749</v>
+      </c>
+      <c r="H51">
+        <v>5.62</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L51">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M51">
+        <v>0.50587306</v>
+      </c>
+      <c r="N51">
+        <v>-0.43587306</v>
+      </c>
+      <c r="O51">
+        <v>-0.0958920732</v>
+      </c>
+      <c r="P51">
+        <v>-0.3399809868</v>
+      </c>
+      <c r="Q51">
+        <v>-0.4099809868</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.07608163561848992</v>
+      </c>
+      <c r="T51">
+        <v>1.414865161408685</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.03044241968528627</v>
+      </c>
+      <c r="W51">
+        <v>0.1781077275038129</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1383746349331194</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1278184206422982</v>
+      </c>
+      <c r="C52">
+        <v>-0.6400245231945125</v>
+      </c>
+      <c r="D52">
+        <v>1.420975476805488</v>
+      </c>
+      <c r="E52">
+        <v>2.81</v>
+      </c>
+      <c r="F52">
+        <v>2.81</v>
+      </c>
+      <c r="G52">
+        <v>0.749</v>
+      </c>
+      <c r="H52">
+        <v>5.62</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M52">
+        <v>0.516197</v>
+      </c>
+      <c r="N52">
+        <v>-0.446197</v>
+      </c>
+      <c r="O52">
+        <v>-0.09816334</v>
+      </c>
+      <c r="P52">
+        <v>-0.34803366</v>
+      </c>
+      <c r="Q52">
+        <v>-0.41803366</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.07741726833085971</v>
+      </c>
+      <c r="T52">
+        <v>1.443162464636858</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.02983357129158054</v>
+      </c>
+      <c r="W52">
+        <v>0.1782195729537367</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.135607142234457</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1295624206422982</v>
+      </c>
+      <c r="C53">
+        <v>-0.7168309704813147</v>
+      </c>
+      <c r="D53">
+        <v>1.400369029518685</v>
+      </c>
+      <c r="E53">
+        <v>2.8662</v>
+      </c>
+      <c r="F53">
+        <v>2.8662</v>
+      </c>
+      <c r="G53">
+        <v>0.749</v>
+      </c>
+      <c r="H53">
+        <v>5.62</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M53">
+        <v>0.52652094</v>
+      </c>
+      <c r="N53">
+        <v>-0.45652094</v>
+      </c>
+      <c r="O53">
+        <v>-0.1004346068</v>
+      </c>
+      <c r="P53">
+        <v>-0.3560863332</v>
+      </c>
+      <c r="Q53">
+        <v>-0.4260863332000001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.07880741666414258</v>
+      </c>
+      <c r="T53">
+        <v>1.472614759833529</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.02924859930547112</v>
+      </c>
+      <c r="W53">
+        <v>0.178327032307585</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.1329481786612323</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1313064206422982</v>
+      </c>
+      <c r="C54">
+        <v>-0.7930483070659271</v>
+      </c>
+      <c r="D54">
+        <v>1.380351692934073</v>
+      </c>
+      <c r="E54">
+        <v>2.9224</v>
+      </c>
+      <c r="F54">
+        <v>2.9224</v>
+      </c>
+      <c r="G54">
+        <v>0.749</v>
+      </c>
+      <c r="H54">
+        <v>5.62</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L54">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0.5368448800000001</v>
+      </c>
+      <c r="N54">
+        <v>-0.4668448800000001</v>
+      </c>
+      <c r="O54">
+        <v>-0.1027058736</v>
+      </c>
+      <c r="P54">
+        <v>-0.3641390064000001</v>
+      </c>
+      <c r="Q54">
+        <v>-0.4341390064000001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.08025548784464556</v>
+      </c>
+      <c r="T54">
+        <v>1.503294233996728</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.02868612624190436</v>
+      </c>
+      <c r="W54">
+        <v>0.1784303586093622</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.1303914829177472</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1330504206422982</v>
+      </c>
+      <c r="C55">
+        <v>-0.8687014397501014</v>
+      </c>
+      <c r="D55">
+        <v>1.360898560249899</v>
+      </c>
+      <c r="E55">
+        <v>2.9786</v>
+      </c>
+      <c r="F55">
+        <v>2.9786</v>
+      </c>
+      <c r="G55">
+        <v>0.749</v>
+      </c>
+      <c r="H55">
+        <v>5.62</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M55">
+        <v>0.54716882</v>
+      </c>
+      <c r="N55">
+        <v>-0.47716882</v>
+      </c>
+      <c r="O55">
+        <v>-0.1049771404</v>
+      </c>
+      <c r="P55">
+        <v>-0.3721916796</v>
+      </c>
+      <c r="Q55">
+        <v>-0.4421916796</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.08176517907538269</v>
+      </c>
+      <c r="T55">
+        <v>1.535279217698786</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.02814487857696277</v>
+      </c>
+      <c r="W55">
+        <v>0.1785297858054119</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.1279312662589217</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1347944206422982</v>
+      </c>
+      <c r="C56">
+        <v>-0.9438138908130917</v>
+      </c>
+      <c r="D56">
+        <v>1.341986109186909</v>
+      </c>
+      <c r="E56">
+        <v>3.0348</v>
+      </c>
+      <c r="F56">
+        <v>3.0348</v>
+      </c>
+      <c r="G56">
+        <v>0.749</v>
+      </c>
+      <c r="H56">
+        <v>5.62</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L56">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M56">
+        <v>0.55749276</v>
+      </c>
+      <c r="N56">
+        <v>-0.48749276</v>
+      </c>
+      <c r="O56">
+        <v>-0.1072484072</v>
+      </c>
+      <c r="P56">
+        <v>-0.3802443528</v>
+      </c>
+      <c r="Q56">
+        <v>-0.4502443528</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.08334050905528231</v>
+      </c>
+      <c r="T56">
+        <v>1.568654852866151</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.02762367712183383</v>
+      </c>
+      <c r="W56">
+        <v>0.1786255305127191</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.1255621687356083</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1365384206422982</v>
+      </c>
+      <c r="C57">
+        <v>-1.018407892896799</v>
+      </c>
+      <c r="D57">
+        <v>1.323592107103202</v>
+      </c>
+      <c r="E57">
+        <v>3.091</v>
+      </c>
+      <c r="F57">
+        <v>3.091</v>
+      </c>
+      <c r="G57">
+        <v>0.749</v>
+      </c>
+      <c r="H57">
+        <v>5.62</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L57">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.5678167000000001</v>
+      </c>
+      <c r="N57">
+        <v>-0.4978167000000001</v>
+      </c>
+      <c r="O57">
+        <v>-0.109519674</v>
+      </c>
+      <c r="P57">
+        <v>-0.388297026</v>
+      </c>
+      <c r="Q57">
+        <v>-0.4582970260000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.08498585370095525</v>
+      </c>
+      <c r="T57">
+        <v>1.60351384959651</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.0271214284468914</v>
+      </c>
+      <c r="W57">
+        <v>0.1787177935943061</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.1232792202131427</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1382824206422982</v>
+      </c>
+      <c r="C58">
+        <v>-1.092504476193135</v>
+      </c>
+      <c r="D58">
+        <v>1.305695523806865</v>
+      </c>
+      <c r="E58">
+        <v>3.1472</v>
+      </c>
+      <c r="F58">
+        <v>3.1472</v>
+      </c>
+      <c r="G58">
+        <v>0.749</v>
+      </c>
+      <c r="H58">
+        <v>5.62</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L58">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M58">
+        <v>0.5781406400000001</v>
+      </c>
+      <c r="N58">
+        <v>-0.5081406400000001</v>
+      </c>
+      <c r="O58">
+        <v>-0.1117909408</v>
+      </c>
+      <c r="P58">
+        <v>-0.3963496992000001</v>
+      </c>
+      <c r="Q58">
+        <v>-0.4663496992000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.08670598673961333</v>
+      </c>
+      <c r="T58">
+        <v>1.639957346178248</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.02663711722462548</v>
+      </c>
+      <c r="W58">
+        <v>0.1788067615658363</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.1210778055664794</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1400264206422982</v>
+      </c>
+      <c r="C59">
+        <v>-1.166123548652481</v>
+      </c>
+      <c r="D59">
+        <v>1.288276451347519</v>
+      </c>
+      <c r="E59">
+        <v>3.2034</v>
+      </c>
+      <c r="F59">
+        <v>3.2034</v>
+      </c>
+      <c r="G59">
+        <v>0.749</v>
+      </c>
+      <c r="H59">
+        <v>5.62</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L59">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M59">
+        <v>0.58846458</v>
+      </c>
+      <c r="N59">
+        <v>-0.5184645800000001</v>
+      </c>
+      <c r="O59">
+        <v>-0.1140622076</v>
+      </c>
+      <c r="P59">
+        <v>-0.4044023724</v>
+      </c>
+      <c r="Q59">
+        <v>-0.4744023724</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.08850612596611596</v>
+      </c>
+      <c r="T59">
+        <v>1.678095889112626</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.02616979937857942</v>
+      </c>
+      <c r="W59">
+        <v>0.178892607854155</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.1189536335389972</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1417704206422982</v>
+      </c>
+      <c r="C60">
+        <v>-1.239283969856372</v>
+      </c>
+      <c r="D60">
+        <v>1.271316030143628</v>
+      </c>
+      <c r="E60">
+        <v>3.2596</v>
+      </c>
+      <c r="F60">
+        <v>3.2596</v>
+      </c>
+      <c r="G60">
+        <v>0.749</v>
+      </c>
+      <c r="H60">
+        <v>5.62</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L60">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M60">
+        <v>0.5987885199999999</v>
+      </c>
+      <c r="N60">
+        <v>-0.52878852</v>
+      </c>
+      <c r="O60">
+        <v>-0.1163334744</v>
+      </c>
+      <c r="P60">
+        <v>-0.4124550456</v>
+      </c>
+      <c r="Q60">
+        <v>-0.4824550456</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.09039198610816633</v>
+      </c>
+      <c r="T60">
+        <v>1.718050553139117</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.02571859594101771</v>
+      </c>
+      <c r="W60">
+        <v>0.1789754939256351</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.1169027088228077</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1435144206422982</v>
+      </c>
+      <c r="C61">
+        <v>-1.312003619130719</v>
+      </c>
+      <c r="D61">
+        <v>1.254796380869281</v>
+      </c>
+      <c r="E61">
+        <v>3.3158</v>
+      </c>
+      <c r="F61">
+        <v>3.3158</v>
+      </c>
+      <c r="G61">
+        <v>0.749</v>
+      </c>
+      <c r="H61">
+        <v>5.62</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L61">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M61">
+        <v>0.60911246</v>
+      </c>
+      <c r="N61">
+        <v>-0.5391124599999999</v>
+      </c>
+      <c r="O61">
+        <v>-0.1186047412</v>
+      </c>
+      <c r="P61">
+        <v>-0.4205077187999999</v>
+      </c>
+      <c r="Q61">
+        <v>-0.4905077187999999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.0923698394278777</v>
+      </c>
+      <c r="T61">
+        <v>1.7599542251669</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.02528268753523775</v>
+      </c>
+      <c r="W61">
+        <v>0.1790555702997768</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1149213069783535</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1452584206422982</v>
+      </c>
+      <c r="C62">
+        <v>-1.384299458416713</v>
+      </c>
+      <c r="D62">
+        <v>1.238700541583286</v>
+      </c>
+      <c r="E62">
+        <v>3.372</v>
+      </c>
+      <c r="F62">
+        <v>3.372</v>
+      </c>
+      <c r="G62">
+        <v>0.749</v>
+      </c>
+      <c r="H62">
+        <v>5.62</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M62">
+        <v>0.6194364</v>
+      </c>
+      <c r="N62">
+        <v>-0.5494364</v>
+      </c>
+      <c r="O62">
+        <v>-0.120876008</v>
+      </c>
+      <c r="P62">
+        <v>-0.4285603920000001</v>
+      </c>
+      <c r="Q62">
+        <v>-0.4985603920000001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.09444658541357465</v>
+      </c>
+      <c r="T62">
+        <v>1.803953080796073</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.02486130940965045</v>
+      </c>
+      <c r="W62">
+        <v>0.1791329774614472</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1130059518620474</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1470024206422982</v>
+      </c>
+      <c r="C63">
+        <v>-1.456187590364175</v>
+      </c>
+      <c r="D63">
+        <v>1.223012409635825</v>
+      </c>
+      <c r="E63">
+        <v>3.4282</v>
+      </c>
+      <c r="F63">
+        <v>3.4282</v>
+      </c>
+      <c r="G63">
+        <v>0.749</v>
+      </c>
+      <c r="H63">
+        <v>5.62</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L63">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M63">
+        <v>0.62976034</v>
+      </c>
+      <c r="N63">
+        <v>-0.55976034</v>
+      </c>
+      <c r="O63">
+        <v>-0.1231472748</v>
+      </c>
+      <c r="P63">
+        <v>-0.4366130652</v>
+      </c>
+      <c r="Q63">
+        <v>-0.5066130652</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.0966298311934099</v>
+      </c>
+      <c r="T63">
+        <v>1.850208287995972</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.02445374696031192</v>
+      </c>
+      <c r="W63">
+        <v>0.1792078466833907</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1111533952741451</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1487464206422982</v>
+      </c>
+      <c r="C64">
+        <v>-1.527683312065604</v>
+      </c>
+      <c r="D64">
+        <v>1.207716687934396</v>
+      </c>
+      <c r="E64">
+        <v>3.4844</v>
+      </c>
+      <c r="F64">
+        <v>3.4844</v>
+      </c>
+      <c r="G64">
+        <v>0.749</v>
+      </c>
+      <c r="H64">
+        <v>5.62</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L64">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M64">
+        <v>0.6400842799999999</v>
+      </c>
+      <c r="N64">
+        <v>-0.5700842799999999</v>
+      </c>
+      <c r="O64">
+        <v>-0.1254185416</v>
+      </c>
+      <c r="P64">
+        <v>-0.4446657383999999</v>
+      </c>
+      <c r="Q64">
+        <v>-0.5146657384</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.09892798464586805</v>
+      </c>
+      <c r="T64">
+        <v>1.89889797978534</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.0240593316867585</v>
+      </c>
+      <c r="W64">
+        <v>0.1792803007691424</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.1093605985761751</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1504904206422982</v>
+      </c>
+      <c r="C65">
+        <v>-1.59880116480785</v>
+      </c>
+      <c r="D65">
+        <v>1.19279883519215</v>
+      </c>
+      <c r="E65">
+        <v>3.5406</v>
+      </c>
+      <c r="F65">
+        <v>3.5406</v>
+      </c>
+      <c r="G65">
+        <v>0.749</v>
+      </c>
+      <c r="H65">
+        <v>5.62</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L65">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M65">
+        <v>0.65040822</v>
+      </c>
+      <c r="N65">
+        <v>-0.58040822</v>
+      </c>
+      <c r="O65">
+        <v>-0.1276898084</v>
+      </c>
+      <c r="P65">
+        <v>-0.4527184116</v>
+      </c>
+      <c r="Q65">
+        <v>-0.5227184116000001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1013503626092699</v>
+      </c>
+      <c r="T65">
+        <v>1.950219546806566</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.02367743753300043</v>
+      </c>
+      <c r="W65">
+        <v>0.1793504547251878</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1076247160590927</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1522344206422982</v>
+      </c>
+      <c r="C66">
+        <v>-1.669554980181552</v>
+      </c>
+      <c r="D66">
+        <v>1.178245019818448</v>
+      </c>
+      <c r="E66">
+        <v>3.5968</v>
+      </c>
+      <c r="F66">
+        <v>3.5968</v>
+      </c>
+      <c r="G66">
+        <v>0.749</v>
+      </c>
+      <c r="H66">
+        <v>5.62</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M66">
+        <v>0.66073216</v>
+      </c>
+      <c r="N66">
+        <v>-0.59073216</v>
+      </c>
+      <c r="O66">
+        <v>-0.1299610752</v>
+      </c>
+      <c r="P66">
+        <v>-0.4607710848</v>
+      </c>
+      <c r="Q66">
+        <v>-0.5307710848</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1039073171261941</v>
+      </c>
+      <c r="T66">
+        <v>2.004392311995637</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.0233074775715473</v>
+      </c>
+      <c r="W66">
+        <v>0.1794184163701068</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1059430798706696</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1539784206422982</v>
+      </c>
+      <c r="C67">
+        <v>-1.739957922855663</v>
+      </c>
+      <c r="D67">
+        <v>1.164042077144337</v>
+      </c>
+      <c r="E67">
+        <v>3.653</v>
+      </c>
+      <c r="F67">
+        <v>3.653</v>
+      </c>
+      <c r="G67">
+        <v>0.749</v>
+      </c>
+      <c r="H67">
+        <v>5.62</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M67">
+        <v>0.6710561</v>
+      </c>
+      <c r="N67">
+        <v>-0.6010561000000001</v>
+      </c>
+      <c r="O67">
+        <v>-0.132232342</v>
+      </c>
+      <c r="P67">
+        <v>-0.4688237580000001</v>
+      </c>
+      <c r="Q67">
+        <v>-0.5388237580000002</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1066103833297996</v>
+      </c>
+      <c r="T67">
+        <v>2.061660663766941</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.02294890099352349</v>
+      </c>
+      <c r="W67">
+        <v>0.1794842868874897</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1043131863341976</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1557224206422982</v>
+      </c>
+      <c r="C68">
+        <v>-1.810022530295114</v>
+      </c>
+      <c r="D68">
+        <v>1.150177469704886</v>
+      </c>
+      <c r="E68">
+        <v>3.7092</v>
+      </c>
+      <c r="F68">
+        <v>3.7092</v>
+      </c>
+      <c r="G68">
+        <v>0.749</v>
+      </c>
+      <c r="H68">
+        <v>5.62</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L68">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M68">
+        <v>0.68138004</v>
+      </c>
+      <c r="N68">
+        <v>-0.61138004</v>
+      </c>
+      <c r="O68">
+        <v>-0.1345036088</v>
+      </c>
+      <c r="P68">
+        <v>-0.4768764312</v>
+      </c>
+      <c r="Q68">
+        <v>-0.5468764312000001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1094724534277349</v>
+      </c>
+      <c r="T68">
+        <v>2.122297742113027</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.0226011903724095</v>
+      </c>
+      <c r="W68">
+        <v>0.1795481613285884</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1027326835109522</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1574664206422982</v>
+      </c>
+      <c r="C69">
+        <v>-1.879760749673498</v>
+      </c>
+      <c r="D69">
+        <v>1.136639250326502</v>
+      </c>
+      <c r="E69">
+        <v>3.7654</v>
+      </c>
+      <c r="F69">
+        <v>3.7654</v>
+      </c>
+      <c r="G69">
+        <v>0.749</v>
+      </c>
+      <c r="H69">
+        <v>5.62</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L69">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M69">
+        <v>0.69170398</v>
+      </c>
+      <c r="N69">
+        <v>-0.6217039799999999</v>
+      </c>
+      <c r="O69">
+        <v>-0.1367748756</v>
+      </c>
+      <c r="P69">
+        <v>-0.4849291043999999</v>
+      </c>
+      <c r="Q69">
+        <v>-0.5549291044</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1125079823194844</v>
+      </c>
+      <c r="T69">
+        <v>2.186609794904331</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.0222638591728213</v>
+      </c>
+      <c r="W69">
+        <v>0.1796101290699527</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1011993598764606</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1592104206422982</v>
+      </c>
+      <c r="C70">
+        <v>-1.949183972209171</v>
+      </c>
+      <c r="D70">
+        <v>1.12341602779083</v>
+      </c>
+      <c r="E70">
+        <v>3.821600000000001</v>
+      </c>
+      <c r="F70">
+        <v>3.821600000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.749</v>
+      </c>
+      <c r="H70">
+        <v>5.62</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L70">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M70">
+        <v>0.7020279200000001</v>
+      </c>
+      <c r="N70">
+        <v>-0.6320279200000001</v>
+      </c>
+      <c r="O70">
+        <v>-0.1390461424</v>
+      </c>
+      <c r="P70">
+        <v>-0.4929817776000001</v>
+      </c>
+      <c r="Q70">
+        <v>-0.5629817776000001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1157332317669683</v>
+      </c>
+      <c r="T70">
+        <v>2.254941350995091</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02193644947910334</v>
+      </c>
+      <c r="W70">
+        <v>0.1796702742306887</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.09971113399592435</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1609544206422982</v>
+      </c>
+      <c r="C71">
+        <v>-2.018303065132208</v>
+      </c>
+      <c r="D71">
+        <v>1.110496934867793</v>
+      </c>
+      <c r="E71">
+        <v>3.877800000000001</v>
+      </c>
+      <c r="F71">
+        <v>3.877800000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.749</v>
+      </c>
+      <c r="H71">
+        <v>5.62</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L71">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0.7123518600000002</v>
+      </c>
+      <c r="N71">
+        <v>-0.6423518600000002</v>
+      </c>
+      <c r="O71">
+        <v>-0.1413174092</v>
+      </c>
+      <c r="P71">
+        <v>-0.5010344508000002</v>
+      </c>
+      <c r="Q71">
+        <v>-0.5710344508000003</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1191665618239673</v>
+      </c>
+      <c r="T71">
+        <v>2.327681394575579</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.02161852992143517</v>
+      </c>
+      <c r="W71">
+        <v>0.1797286760534323</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.09826604509743253</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1626984206422982</v>
+      </c>
+      <c r="C72">
+        <v>-2.087128401470745</v>
+      </c>
+      <c r="D72">
+        <v>1.097871598529255</v>
+      </c>
+      <c r="E72">
+        <v>3.934000000000001</v>
+      </c>
+      <c r="F72">
+        <v>3.934000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.749</v>
+      </c>
+      <c r="H72">
+        <v>5.62</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L72">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M72">
+        <v>0.7226758000000001</v>
+      </c>
+      <c r="N72">
+        <v>-0.6526758000000001</v>
+      </c>
+      <c r="O72">
+        <v>-0.143588676</v>
+      </c>
+      <c r="P72">
+        <v>-0.5090871240000001</v>
+      </c>
+      <c r="Q72">
+        <v>-0.5790871240000002</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1228287805514329</v>
+      </c>
+      <c r="T72">
+        <v>2.405270774394765</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02130969377970039</v>
+      </c>
+      <c r="W72">
+        <v>0.179785409252669</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.09686224445318348</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1644424206422982</v>
+      </c>
+      <c r="C73">
+        <v>-2.1556698878283</v>
+      </c>
+      <c r="D73">
+        <v>1.0855301121717</v>
+      </c>
+      <c r="E73">
+        <v>3.9902</v>
+      </c>
+      <c r="F73">
+        <v>3.9902</v>
+      </c>
+      <c r="G73">
+        <v>0.749</v>
+      </c>
+      <c r="H73">
+        <v>5.62</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L73">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M73">
+        <v>0.73299974</v>
+      </c>
+      <c r="N73">
+        <v>-0.6629997400000001</v>
+      </c>
+      <c r="O73">
+        <v>-0.1458599428</v>
+      </c>
+      <c r="P73">
+        <v>-0.5171397972</v>
+      </c>
+      <c r="Q73">
+        <v>-0.5871397972000001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1267435660876891</v>
+      </c>
+      <c r="T73">
+        <v>2.488211145925618</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.02100955724759193</v>
+      </c>
+      <c r="W73">
+        <v>0.1798405443336174</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.09549798748905414</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1661864206422982</v>
+      </c>
+      <c r="C74">
+        <v>-2.223936990308405</v>
+      </c>
+      <c r="D74">
+        <v>1.073463009691595</v>
+      </c>
+      <c r="E74">
+        <v>4.0464</v>
+      </c>
+      <c r="F74">
+        <v>4.0464</v>
+      </c>
+      <c r="G74">
+        <v>0.749</v>
+      </c>
+      <c r="H74">
+        <v>5.62</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L74">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M74">
+        <v>0.74332368</v>
+      </c>
+      <c r="N74">
+        <v>-0.67332368</v>
+      </c>
+      <c r="O74">
+        <v>-0.1481312096</v>
+      </c>
+      <c r="P74">
+        <v>-0.5251924703999999</v>
+      </c>
+      <c r="Q74">
+        <v>-0.5951924704</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1309379791622495</v>
+      </c>
+      <c r="T74">
+        <v>2.577075829708675</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.02071775784137538</v>
+      </c>
+      <c r="W74">
+        <v>0.1798941478845393</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.0941716265517063</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1679304206422982</v>
+      </c>
+      <c r="C75">
+        <v>-2.291938758729127</v>
+      </c>
+      <c r="D75">
+        <v>1.061661241270873</v>
+      </c>
+      <c r="E75">
+        <v>4.1026</v>
+      </c>
+      <c r="F75">
+        <v>4.1026</v>
+      </c>
+      <c r="G75">
+        <v>0.749</v>
+      </c>
+      <c r="H75">
+        <v>5.62</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L75">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M75">
+        <v>0.75364762</v>
+      </c>
+      <c r="N75">
+        <v>-0.6836476199999999</v>
+      </c>
+      <c r="O75">
+        <v>-0.1504024764</v>
+      </c>
+      <c r="P75">
+        <v>-0.5332451435999999</v>
+      </c>
+      <c r="Q75">
+        <v>-0.6032451435999999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.135443089501592</v>
+      </c>
+      <c r="T75">
+        <v>2.672523082660848</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02043395293943873</v>
+      </c>
+      <c r="W75">
+        <v>0.1799462828450251</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.09288160427017611</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1696744206422982</v>
+      </c>
+      <c r="C76">
+        <v>-2.359683849257661</v>
+      </c>
+      <c r="D76">
+        <v>1.05011615074234</v>
+      </c>
+      <c r="E76">
+        <v>4.1588</v>
+      </c>
+      <c r="F76">
+        <v>4.1588</v>
+      </c>
+      <c r="G76">
+        <v>0.749</v>
+      </c>
+      <c r="H76">
+        <v>5.62</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L76">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M76">
+        <v>0.7639715600000001</v>
+      </c>
+      <c r="N76">
+        <v>-0.69397156</v>
+      </c>
+      <c r="O76">
+        <v>-0.1526737432</v>
+      </c>
+      <c r="P76">
+        <v>-0.5412978168</v>
+      </c>
+      <c r="Q76">
+        <v>-0.6112978168000001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1402947467901148</v>
+      </c>
+      <c r="T76">
+        <v>2.775312431993958</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.02015781844025712</v>
+      </c>
+      <c r="W76">
+        <v>0.1799970087525248</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.09162644745571424</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1714184206422982</v>
+      </c>
+      <c r="C77">
+        <v>-2.427180545583955</v>
+      </c>
+      <c r="D77">
+        <v>1.038819454416045</v>
+      </c>
+      <c r="E77">
+        <v>4.215</v>
+      </c>
+      <c r="F77">
+        <v>4.215</v>
+      </c>
+      <c r="G77">
+        <v>0.749</v>
+      </c>
+      <c r="H77">
+        <v>5.62</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L77">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M77">
+        <v>0.7742955</v>
+      </c>
+      <c r="N77">
+        <v>-0.7042955</v>
+      </c>
+      <c r="O77">
+        <v>-0.15494501</v>
+      </c>
+      <c r="P77">
+        <v>-0.5493504899999999</v>
+      </c>
+      <c r="Q77">
+        <v>-0.61935049</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1455345366617194</v>
+      </c>
+      <c r="T77">
+        <v>2.886324929273717</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.01988904752772036</v>
+      </c>
+      <c r="W77">
+        <v>0.1800463819691578</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.09040476148963805</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1731624206422982</v>
+      </c>
+      <c r="C78">
+        <v>-2.494436778742237</v>
+      </c>
+      <c r="D78">
+        <v>1.027763221257763</v>
+      </c>
+      <c r="E78">
+        <v>4.2712</v>
+      </c>
+      <c r="F78">
+        <v>4.2712</v>
+      </c>
+      <c r="G78">
+        <v>0.749</v>
+      </c>
+      <c r="H78">
+        <v>5.62</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L78">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M78">
+        <v>0.7846194400000001</v>
+      </c>
+      <c r="N78">
+        <v>-0.7146194400000001</v>
+      </c>
+      <c r="O78">
+        <v>-0.1572162768</v>
+      </c>
+      <c r="P78">
+        <v>-0.5574031632000001</v>
+      </c>
+      <c r="Q78">
+        <v>-0.6274031632000001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1512109756892911</v>
+      </c>
+      <c r="T78">
+        <v>3.006588467993456</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.01962734953393457</v>
+      </c>
+      <c r="W78">
+        <v>0.1800944558906162</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.08921522515424796</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1749064206422982</v>
+      </c>
+      <c r="C79">
+        <v>-2.561460145680075</v>
+      </c>
+      <c r="D79">
+        <v>1.016939854319925</v>
+      </c>
+      <c r="E79">
+        <v>4.3274</v>
+      </c>
+      <c r="F79">
+        <v>4.3274</v>
+      </c>
+      <c r="G79">
+        <v>0.749</v>
+      </c>
+      <c r="H79">
+        <v>5.62</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L79">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M79">
+        <v>0.79494338</v>
+      </c>
+      <c r="N79">
+        <v>-0.72494338</v>
+      </c>
+      <c r="O79">
+        <v>-0.1594875436</v>
+      </c>
+      <c r="P79">
+        <v>-0.5654558364</v>
+      </c>
+      <c r="Q79">
+        <v>-0.6354558364</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1573810181105646</v>
+      </c>
+      <c r="T79">
+        <v>3.137309705732302</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.01937244889063672</v>
+      </c>
+      <c r="W79">
+        <v>0.18014128113879</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.08805658586653042</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1766504206422982</v>
+      </c>
+      <c r="C80">
+        <v>-2.628257926666385</v>
+      </c>
+      <c r="D80">
+        <v>1.006342073333615</v>
+      </c>
+      <c r="E80">
+        <v>4.3836</v>
+      </c>
+      <c r="F80">
+        <v>4.3836</v>
+      </c>
+      <c r="G80">
+        <v>0.749</v>
+      </c>
+      <c r="H80">
+        <v>5.62</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L80">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M80">
+        <v>0.8052673200000001</v>
+      </c>
+      <c r="N80">
+        <v>-0.7352673200000002</v>
+      </c>
+      <c r="O80">
+        <v>-0.1617588104</v>
+      </c>
+      <c r="P80">
+        <v>-0.5735085096000001</v>
+      </c>
+      <c r="Q80">
+        <v>-0.6435085096000002</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1641119734792267</v>
+      </c>
+      <c r="T80">
+        <v>3.279914692356497</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.01912408416126958</v>
+      </c>
+      <c r="W80">
+        <v>0.1801869057395748</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.086927655278498</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1783944206422982</v>
+      </c>
+      <c r="C81">
+        <v>-2.694837101622171</v>
+      </c>
+      <c r="D81">
+        <v>0.9959628983778287</v>
+      </c>
+      <c r="E81">
+        <v>4.4398</v>
+      </c>
+      <c r="F81">
+        <v>4.4398</v>
+      </c>
+      <c r="G81">
+        <v>0.749</v>
+      </c>
+      <c r="H81">
+        <v>5.62</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L81">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M81">
+        <v>0.81559126</v>
+      </c>
+      <c r="N81">
+        <v>-0.7455912600000001</v>
+      </c>
+      <c r="O81">
+        <v>-0.1640300772</v>
+      </c>
+      <c r="P81">
+        <v>-0.5815611828</v>
+      </c>
+      <c r="Q81">
+        <v>-0.6515611828000001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1714839722163327</v>
+      </c>
+      <c r="T81">
+        <v>3.436101106278235</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.01888200714656996</v>
+      </c>
+      <c r="W81">
+        <v>0.1802313752871751</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.08582730521168158</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1801384206422982</v>
+      </c>
+      <c r="C82">
+        <v>-2.761204365451003</v>
+      </c>
+      <c r="D82">
+        <v>0.9857956345489978</v>
+      </c>
+      <c r="E82">
+        <v>4.496</v>
+      </c>
+      <c r="F82">
+        <v>4.496</v>
+      </c>
+      <c r="G82">
+        <v>0.749</v>
+      </c>
+      <c r="H82">
+        <v>5.62</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L82">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M82">
+        <v>0.8259152000000001</v>
+      </c>
+      <c r="N82">
+        <v>-0.7559152</v>
+      </c>
+      <c r="O82">
+        <v>-0.166301344</v>
+      </c>
+      <c r="P82">
+        <v>-0.589613856</v>
+      </c>
+      <c r="Q82">
+        <v>-0.659613856</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1795931708271493</v>
+      </c>
+      <c r="T82">
+        <v>3.607906161592147</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.01864598205723784</v>
+      </c>
+      <c r="W82">
+        <v>0.1802747330960854</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.08475446389653574</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1818824206422982</v>
+      </c>
+      <c r="C83">
+        <v>-2.827366142439962</v>
+      </c>
+      <c r="D83">
+        <v>0.9758338575600382</v>
+      </c>
+      <c r="E83">
+        <v>4.5522</v>
+      </c>
+      <c r="F83">
+        <v>4.5522</v>
+      </c>
+      <c r="G83">
+        <v>0.749</v>
+      </c>
+      <c r="H83">
+        <v>5.62</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L83">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M83">
+        <v>0.83623914</v>
+      </c>
+      <c r="N83">
+        <v>-0.7662391399999999</v>
+      </c>
+      <c r="O83">
+        <v>-0.1685726108</v>
+      </c>
+      <c r="P83">
+        <v>-0.5976665292</v>
+      </c>
+      <c r="Q83">
+        <v>-0.6676665291999999</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.1885559692917362</v>
+      </c>
+      <c r="T83">
+        <v>3.797795959570681</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.01841578474788922</v>
+      </c>
+      <c r="W83">
+        <v>0.1803170203418128</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.08370811249040566</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1836264206422982</v>
+      </c>
+      <c r="C84">
+        <v>-2.893328599796193</v>
+      </c>
+      <c r="D84">
+        <v>0.9660714002038079</v>
+      </c>
+      <c r="E84">
+        <v>4.6084</v>
+      </c>
+      <c r="F84">
+        <v>4.6084</v>
+      </c>
+      <c r="G84">
+        <v>0.749</v>
+      </c>
+      <c r="H84">
+        <v>5.62</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L84">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M84">
+        <v>0.8465630800000001</v>
+      </c>
+      <c r="N84">
+        <v>-0.7765630800000001</v>
+      </c>
+      <c r="O84">
+        <v>-0.1708438776</v>
+      </c>
+      <c r="P84">
+        <v>-0.6057192024</v>
+      </c>
+      <c r="Q84">
+        <v>-0.6757192024000001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.1985146342523882</v>
+      </c>
+      <c r="T84">
+        <v>4.008784623991275</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.0181912020070613</v>
+      </c>
+      <c r="W84">
+        <v>0.1803582761913028</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.08268728185027874</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1853704206422982</v>
+      </c>
+      <c r="C85">
+        <v>-2.959097660378937</v>
+      </c>
+      <c r="D85">
+        <v>0.9565023396210633</v>
+      </c>
+      <c r="E85">
+        <v>4.6646</v>
+      </c>
+      <c r="F85">
+        <v>4.6646</v>
+      </c>
+      <c r="G85">
+        <v>0.749</v>
+      </c>
+      <c r="H85">
+        <v>5.62</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L85">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M85">
+        <v>0.8568870200000001</v>
+      </c>
+      <c r="N85">
+        <v>-0.78688702</v>
+      </c>
+      <c r="O85">
+        <v>-0.1731151444</v>
+      </c>
+      <c r="P85">
+        <v>-0.6137718756</v>
+      </c>
+      <c r="Q85">
+        <v>-0.6837718756</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2096449068554698</v>
+      </c>
+      <c r="T85">
+        <v>4.244595484226055</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.01797203089854249</v>
+      </c>
+      <c r="W85">
+        <v>0.1803985379239378</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.08169104953882955</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1871144206422982</v>
+      </c>
+      <c r="C86">
+        <v>-3.024679014682336</v>
+      </c>
+      <c r="D86">
+        <v>0.9471209853176635</v>
+      </c>
+      <c r="E86">
+        <v>4.7208</v>
+      </c>
+      <c r="F86">
+        <v>4.7208</v>
+      </c>
+      <c r="G86">
+        <v>0.749</v>
+      </c>
+      <c r="H86">
+        <v>5.62</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L86">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M86">
+        <v>0.86721096</v>
+      </c>
+      <c r="N86">
+        <v>-0.7972109599999999</v>
+      </c>
+      <c r="O86">
+        <v>-0.1753864112</v>
+      </c>
+      <c r="P86">
+        <v>-0.6218245487999999</v>
+      </c>
+      <c r="Q86">
+        <v>-0.6918245487999999</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2221664635339366</v>
+      </c>
+      <c r="T86">
+        <v>4.509882701990183</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.01775807814975032</v>
+      </c>
+      <c r="W86">
+        <v>0.1804378410438909</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.08071853704431975</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1888584206422982</v>
+      </c>
+      <c r="C87">
+        <v>-3.090078132119912</v>
+      </c>
+      <c r="D87">
+        <v>0.9379218678800886</v>
+      </c>
+      <c r="E87">
+        <v>4.777</v>
+      </c>
+      <c r="F87">
+        <v>4.777</v>
+      </c>
+      <c r="G87">
+        <v>0.749</v>
+      </c>
+      <c r="H87">
+        <v>5.62</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L87">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M87">
+        <v>0.8775349</v>
+      </c>
+      <c r="N87">
+        <v>-0.8075349000000001</v>
+      </c>
+      <c r="O87">
+        <v>-0.177657678</v>
+      </c>
+      <c r="P87">
+        <v>-0.6298772220000001</v>
+      </c>
+      <c r="Q87">
+        <v>-0.699877222</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2363575611028657</v>
+      </c>
+      <c r="T87">
+        <v>4.810541548789528</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.01754915958328267</v>
+      </c>
+      <c r="W87">
+        <v>0.180476219384551</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.07976890719673935</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1906024206422982</v>
+      </c>
+      <c r="C88">
+        <v>-3.15530027165775</v>
+      </c>
+      <c r="D88">
+        <v>0.9288997283422494</v>
+      </c>
+      <c r="E88">
+        <v>4.8332</v>
+      </c>
+      <c r="F88">
+        <v>4.8332</v>
+      </c>
+      <c r="G88">
+        <v>0.749</v>
+      </c>
+      <c r="H88">
+        <v>5.62</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L88">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M88">
+        <v>0.8878588399999999</v>
+      </c>
+      <c r="N88">
+        <v>-0.81785884</v>
+      </c>
+      <c r="O88">
+        <v>-0.1799289448</v>
+      </c>
+      <c r="P88">
+        <v>-0.6379298952</v>
+      </c>
+      <c r="Q88">
+        <v>-0.7079298951999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2525759583244989</v>
+      </c>
+      <c r="T88">
+        <v>5.154151659417351</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.01734509958812823</v>
+      </c>
+      <c r="W88">
+        <v>0.1805137052056608</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.07884136176421919</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1923464206422982</v>
+      </c>
+      <c r="C89">
+        <v>-3.220350491839847</v>
+      </c>
+      <c r="D89">
+        <v>0.9200495081601532</v>
+      </c>
+      <c r="E89">
+        <v>4.8894</v>
+      </c>
+      <c r="F89">
+        <v>4.8894</v>
+      </c>
+      <c r="G89">
+        <v>0.749</v>
+      </c>
+      <c r="H89">
+        <v>5.62</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L89">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M89">
+        <v>0.8981827800000001</v>
+      </c>
+      <c r="N89">
+        <v>-0.8281827800000001</v>
+      </c>
+      <c r="O89">
+        <v>-0.1822002116</v>
+      </c>
+      <c r="P89">
+        <v>-0.6459825684000001</v>
+      </c>
+      <c r="Q89">
+        <v>-0.7159825684000001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.2712894935802296</v>
+      </c>
+      <c r="T89">
+        <v>5.550624863987916</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.01714573062734514</v>
+      </c>
+      <c r="W89">
+        <v>0.1805503292837567</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.07793513921520512</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1940904206422982</v>
+      </c>
+      <c r="C90">
+        <v>-3.285233660245731</v>
+      </c>
+      <c r="D90">
+        <v>0.911366339754269</v>
+      </c>
+      <c r="E90">
+        <v>4.9456</v>
+      </c>
+      <c r="F90">
+        <v>4.9456</v>
+      </c>
+      <c r="G90">
+        <v>0.749</v>
+      </c>
+      <c r="H90">
+        <v>5.62</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L90">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M90">
+        <v>0.90850672</v>
+      </c>
+      <c r="N90">
+        <v>-0.83850672</v>
+      </c>
+      <c r="O90">
+        <v>-0.1844714784</v>
+      </c>
+      <c r="P90">
+        <v>-0.6540352416</v>
+      </c>
+      <c r="Q90">
+        <v>-0.7240352416</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.2931219513785821</v>
+      </c>
+      <c r="T90">
+        <v>6.01317693598691</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.01695089277930713</v>
+      </c>
+      <c r="W90">
+        <v>0.1805861209964413</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.07704951263321413</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1958344206422982</v>
+      </c>
+      <c r="C91">
+        <v>-3.349954462417569</v>
+      </c>
+      <c r="D91">
+        <v>0.9028455375824309</v>
+      </c>
+      <c r="E91">
+        <v>5.0018</v>
+      </c>
+      <c r="F91">
+        <v>5.0018</v>
+      </c>
+      <c r="G91">
+        <v>0.749</v>
+      </c>
+      <c r="H91">
+        <v>5.62</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L91">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M91">
+        <v>0.91883066</v>
+      </c>
+      <c r="N91">
+        <v>-0.84883066</v>
+      </c>
+      <c r="O91">
+        <v>-0.1867427452</v>
+      </c>
+      <c r="P91">
+        <v>-0.6620879148</v>
+      </c>
+      <c r="Q91">
+        <v>-0.7320879147999999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3189239469584533</v>
+      </c>
+      <c r="T91">
+        <v>6.559829384712994</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.01676043330987671</v>
+      </c>
+      <c r="W91">
+        <v>0.1806211084009756</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.07618378777216694</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1975784206422982</v>
+      </c>
+      <c r="C92">
+        <v>-3.414517410291108</v>
+      </c>
+      <c r="D92">
+        <v>0.8944825897088921</v>
+      </c>
+      <c r="E92">
+        <v>5.058</v>
+      </c>
+      <c r="F92">
+        <v>5.058</v>
+      </c>
+      <c r="G92">
+        <v>0.749</v>
+      </c>
+      <c r="H92">
+        <v>5.62</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L92">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M92">
+        <v>0.9291545999999999</v>
+      </c>
+      <c r="N92">
+        <v>-0.8591545999999999</v>
+      </c>
+      <c r="O92">
+        <v>-0.189014012</v>
+      </c>
+      <c r="P92">
+        <v>-0.6701405879999999</v>
+      </c>
+      <c r="Q92">
+        <v>-0.7401405879999998</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3498863416542987</v>
+      </c>
+      <c r="T92">
+        <v>7.215812323184294</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.0165742062731003</v>
+      </c>
+      <c r="W92">
+        <v>0.1806553183076315</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.07533730124136506</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1993224206422982</v>
+      </c>
+      <c r="C93">
+        <v>-3.478926850162358</v>
+      </c>
+      <c r="D93">
+        <v>0.8862731498376419</v>
+      </c>
+      <c r="E93">
+        <v>5.1142</v>
+      </c>
+      <c r="F93">
+        <v>5.1142</v>
+      </c>
+      <c r="G93">
+        <v>0.749</v>
+      </c>
+      <c r="H93">
+        <v>5.62</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L93">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M93">
+        <v>0.9394785400000001</v>
+      </c>
+      <c r="N93">
+        <v>-0.86947854</v>
+      </c>
+      <c r="O93">
+        <v>-0.1912852788</v>
+      </c>
+      <c r="P93">
+        <v>-0.6781932612</v>
+      </c>
+      <c r="Q93">
+        <v>-0.7481932612</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.3877292685047763</v>
+      </c>
+      <c r="T93">
+        <v>8.01756924798255</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.01639207213823107</v>
+      </c>
+      <c r="W93">
+        <v>0.180688776348207</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.07450941881014128</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2010664206422982</v>
+      </c>
+      <c r="C94">
+        <v>-3.54318697021956</v>
+      </c>
+      <c r="D94">
+        <v>0.8782130297804399</v>
+      </c>
+      <c r="E94">
+        <v>5.1704</v>
+      </c>
+      <c r="F94">
+        <v>5.1704</v>
+      </c>
+      <c r="G94">
+        <v>0.749</v>
+      </c>
+      <c r="H94">
+        <v>5.62</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L94">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M94">
+        <v>0.94980248</v>
+      </c>
+      <c r="N94">
+        <v>-0.8798024799999999</v>
+      </c>
+      <c r="O94">
+        <v>-0.1935565456</v>
+      </c>
+      <c r="P94">
+        <v>-0.6862459343999999</v>
+      </c>
+      <c r="Q94">
+        <v>-0.7562459343999999</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4350329270678734</v>
+      </c>
+      <c r="T94">
+        <v>9.019765403980371</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01621389744107638</v>
+      </c>
+      <c r="W94">
+        <v>0.1807215070400743</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.07369953382307448</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2028104206422982</v>
+      </c>
+      <c r="C95">
+        <v>-3.607301807667866</v>
+      </c>
+      <c r="D95">
+        <v>0.8702981923321341</v>
+      </c>
+      <c r="E95">
+        <v>5.2266</v>
+      </c>
+      <c r="F95">
+        <v>5.2266</v>
+      </c>
+      <c r="G95">
+        <v>0.749</v>
+      </c>
+      <c r="H95">
+        <v>5.62</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L95">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M95">
+        <v>0.96012642</v>
+      </c>
+      <c r="N95">
+        <v>-0.8901264200000001</v>
+      </c>
+      <c r="O95">
+        <v>-0.1958278124</v>
+      </c>
+      <c r="P95">
+        <v>-0.6942986076000001</v>
+      </c>
+      <c r="Q95">
+        <v>-0.7642986076</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.4958519166489983</v>
+      </c>
+      <c r="T95">
+        <v>10.30830331883471</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.016039554457839</v>
+      </c>
+      <c r="W95">
+        <v>0.180753533846095</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.07290706571744998</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2045544206422982</v>
+      </c>
+      <c r="C96">
+        <v>-3.671275255472195</v>
+      </c>
+      <c r="D96">
+        <v>0.8625247445278059</v>
+      </c>
+      <c r="E96">
+        <v>5.282800000000001</v>
+      </c>
+      <c r="F96">
+        <v>5.282800000000001</v>
+      </c>
+      <c r="G96">
+        <v>0.749</v>
+      </c>
+      <c r="H96">
+        <v>5.62</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L96">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M96">
+        <v>0.9704503600000002</v>
+      </c>
+      <c r="N96">
+        <v>-0.9004503600000002</v>
+      </c>
+      <c r="O96">
+        <v>-0.1980990792000001</v>
+      </c>
+      <c r="P96">
+        <v>-0.7023512808000002</v>
+      </c>
+      <c r="Q96">
+        <v>-0.7723512808000002</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.5769439027571648</v>
+      </c>
+      <c r="T96">
+        <v>12.02635387197383</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01586892089977688</v>
+      </c>
+      <c r="W96">
+        <v>0.180784879230711</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.07213145863534942</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2062984206422982</v>
+      </c>
+      <c r="C97">
+        <v>-3.735111068741925</v>
+      </c>
+      <c r="D97">
+        <v>0.8548889312580751</v>
+      </c>
+      <c r="E97">
+        <v>5.339</v>
+      </c>
+      <c r="F97">
+        <v>5.339</v>
+      </c>
+      <c r="G97">
+        <v>0.749</v>
+      </c>
+      <c r="H97">
+        <v>5.62</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L97">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M97">
+        <v>0.9807743000000001</v>
+      </c>
+      <c r="N97">
+        <v>-0.9107743000000001</v>
+      </c>
+      <c r="O97">
+        <v>-0.200370346</v>
+      </c>
+      <c r="P97">
+        <v>-0.7104039540000001</v>
+      </c>
+      <c r="Q97">
+        <v>-0.7804039540000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.6904726833085981</v>
+      </c>
+      <c r="T97">
+        <v>14.43162464636861</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.01570187962714765</v>
+      </c>
+      <c r="W97">
+        <v>0.180815564712493</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.07137218012339841</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2080424206422982</v>
+      </c>
+      <c r="C98">
+        <v>-3.798812870779435</v>
+      </c>
+      <c r="D98">
+        <v>0.8473871292205649</v>
+      </c>
+      <c r="E98">
+        <v>5.3952</v>
+      </c>
+      <c r="F98">
+        <v>5.3952</v>
+      </c>
+      <c r="G98">
+        <v>0.749</v>
+      </c>
+      <c r="H98">
+        <v>5.62</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L98">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M98">
+        <v>0.99109824</v>
+      </c>
+      <c r="N98">
+        <v>-0.9210982400000001</v>
+      </c>
+      <c r="O98">
+        <v>-0.2026416128</v>
+      </c>
+      <c r="P98">
+        <v>-0.7184566272</v>
+      </c>
+      <c r="Q98">
+        <v>-0.7884566272</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.8607658541357458</v>
+      </c>
+      <c r="T98">
+        <v>18.03953080796072</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.01553831838103153</v>
+      </c>
+      <c r="W98">
+        <v>0.1808456109134045</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.07062871991377961</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2097864206422982</v>
+      </c>
+      <c r="C99">
+        <v>-3.862384158812939</v>
+      </c>
+      <c r="D99">
+        <v>0.8400158411870606</v>
+      </c>
+      <c r="E99">
+        <v>5.4514</v>
+      </c>
+      <c r="F99">
+        <v>5.4514</v>
+      </c>
+      <c r="G99">
+        <v>0.749</v>
+      </c>
+      <c r="H99">
+        <v>5.62</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L99">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M99">
+        <v>1.00142218</v>
+      </c>
+      <c r="N99">
+        <v>-0.9314221799999998</v>
+      </c>
+      <c r="O99">
+        <v>-0.2049128796</v>
+      </c>
+      <c r="P99">
+        <v>-0.7265093003999998</v>
+      </c>
+      <c r="Q99">
+        <v>-0.7965093003999999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.144587805514328</v>
+      </c>
+      <c r="T99">
+        <v>24.05270774394763</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.01537812953174255</v>
+      </c>
+      <c r="W99">
+        <v>0.1808750376050189</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.06990058878064798</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2115304206422982</v>
+      </c>
+      <c r="C100">
+        <v>-3.925828309432699</v>
+      </c>
+      <c r="D100">
+        <v>0.8327716905673008</v>
+      </c>
+      <c r="E100">
+        <v>5.5076</v>
+      </c>
+      <c r="F100">
+        <v>5.5076</v>
+      </c>
+      <c r="G100">
+        <v>0.749</v>
+      </c>
+      <c r="H100">
+        <v>5.62</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L100">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M100">
+        <v>1.01174612</v>
+      </c>
+      <c r="N100">
+        <v>-0.9417461199999999</v>
+      </c>
+      <c r="O100">
+        <v>-0.2071841464</v>
+      </c>
+      <c r="P100">
+        <v>-0.7345619736</v>
+      </c>
+      <c r="Q100">
+        <v>-0.8045619736</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.712231708271491</v>
+      </c>
+      <c r="T100">
+        <v>36.07906161592143</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.01522120984264314</v>
+      </c>
+      <c r="W100">
+        <v>0.1809038637519065</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.06918731746655971</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2132744206422982</v>
+      </c>
+      <c r="C101">
+        <v>-3.989148583748351</v>
+      </c>
+      <c r="D101">
+        <v>0.8256514162516487</v>
+      </c>
+      <c r="E101">
+        <v>5.5638</v>
+      </c>
+      <c r="F101">
+        <v>5.5638</v>
+      </c>
+      <c r="G101">
+        <v>0.749</v>
+      </c>
+      <c r="H101">
+        <v>5.62</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L101">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M101">
+        <v>1.02207006</v>
+      </c>
+      <c r="N101">
+        <v>-0.9520700599999998</v>
+      </c>
+      <c r="O101">
+        <v>-0.2094554132</v>
+      </c>
+      <c r="P101">
+        <v>-0.7426146467999999</v>
+      </c>
+      <c r="Q101">
+        <v>-0.8126146468</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.415163416542983</v>
+      </c>
+      <c r="T101">
+        <v>72.15812323184286</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.015067460248273</v>
+      </c>
+      <c r="W101">
+        <v>0.1809321075523923</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.06848845567396822</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
